--- a/REGULAR/CTO/DE OCAMPO, MARISSA.xlsx
+++ b/REGULAR/CTO/DE OCAMPO, MARISSA.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\CTO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\CTO\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="409">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1266,6 +1266,9 @@
   </si>
   <si>
     <t>UT(0-4-23)</t>
+  </si>
+  <si>
+    <t>UT(0-0-45)</t>
   </si>
 </sst>
 </file>
@@ -3694,7 +3697,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K590" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K592" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -4072,12 +4075,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K590"/>
+  <dimension ref="A2:K592"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="2520" topLeftCell="A557" activePane="bottomLeft"/>
       <selection activeCell="F8" sqref="F8"/>
-      <selection pane="bottomLeft" activeCell="E569" sqref="E569"/>
+      <selection pane="bottomLeft" activeCell="F567" sqref="F567"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4238,7 +4241,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>88.041999999999831</v>
+        <v>86.487999999999857</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -16353,7 +16356,7 @@
     </row>
     <row r="561" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A561" s="40">
-        <f t="shared" ref="A561:A564" si="28">EDATE(A560,1)</f>
+        <f t="shared" ref="A561:A562" si="28">EDATE(A560,1)</f>
         <v>44621</v>
       </c>
       <c r="B561" s="20"/>
@@ -16400,38 +16403,39 @@
       </c>
     </row>
     <row r="563" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A563" s="40">
-        <f t="shared" si="28"/>
-        <v>44682</v>
-      </c>
-      <c r="B563" s="20"/>
-      <c r="C563" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D563" s="39"/>
+      <c r="A563" s="40"/>
+      <c r="B563" s="20" t="s">
+        <v>408</v>
+      </c>
+      <c r="C563" s="13"/>
+      <c r="D563" s="39">
+        <v>9.4E-2</v>
+      </c>
       <c r="E563" s="9"/>
       <c r="F563" s="20"/>
-      <c r="G563" s="42">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G563" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H563" s="39"/>
       <c r="I563" s="9"/>
       <c r="J563" s="11"/>
-      <c r="K563" s="20"/>
+      <c r="K563" s="50"/>
     </row>
     <row r="564" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A564" s="40">
-        <f t="shared" si="28"/>
-        <v>44713</v>
+        <f>EDATE(A562,1)</f>
+        <v>44682</v>
       </c>
       <c r="B564" s="20" t="s">
-        <v>133</v>
+        <v>395</v>
       </c>
       <c r="C564" s="13">
         <v>1.25</v>
       </c>
-      <c r="D564" s="39"/>
+      <c r="D564" s="39">
+        <v>1</v>
+      </c>
       <c r="E564" s="9"/>
       <c r="F564" s="20"/>
       <c r="G564" s="42">
@@ -16441,18 +16445,18 @@
       <c r="H564" s="39"/>
       <c r="I564" s="9"/>
       <c r="J564" s="11"/>
-      <c r="K564" s="20" t="s">
-        <v>389</v>
+      <c r="K564" s="56">
+        <v>44704</v>
       </c>
     </row>
     <row r="565" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A565" s="40"/>
       <c r="B565" s="20" t="s">
-        <v>395</v>
+        <v>105</v>
       </c>
       <c r="C565" s="13"/>
       <c r="D565" s="39">
-        <v>1</v>
+        <v>0.46</v>
       </c>
       <c r="E565" s="9"/>
       <c r="F565" s="20"/>
@@ -16463,65 +16467,63 @@
       <c r="H565" s="39"/>
       <c r="I565" s="9"/>
       <c r="J565" s="11"/>
-      <c r="K565" s="56">
-        <v>44718</v>
-      </c>
+      <c r="K565" s="56"/>
     </row>
     <row r="566" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A566" s="40"/>
+      <c r="A566" s="40">
+        <f>EDATE(A564,1)</f>
+        <v>44713</v>
+      </c>
       <c r="B566" s="20" t="s">
-        <v>407</v>
-      </c>
-      <c r="C566" s="13"/>
-      <c r="D566" s="39">
-        <v>0.54800000000000004</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="C566" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D566" s="39"/>
       <c r="E566" s="9"/>
       <c r="F566" s="20"/>
-      <c r="G566" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G566" s="42">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H566" s="39"/>
       <c r="I566" s="9"/>
       <c r="J566" s="11"/>
-      <c r="K566" s="56"/>
+      <c r="K566" s="20" t="s">
+        <v>389</v>
+      </c>
     </row>
     <row r="567" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A567" s="40">
-        <f>EDATE(A564,1)</f>
-        <v>44743</v>
-      </c>
+      <c r="A567" s="40"/>
       <c r="B567" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="C567" s="13">
-        <v>1.25</v>
-      </c>
+        <v>395</v>
+      </c>
+      <c r="C567" s="13"/>
       <c r="D567" s="39">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E567" s="9"/>
       <c r="F567" s="20"/>
-      <c r="G567" s="42">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G567" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H567" s="39"/>
       <c r="I567" s="9"/>
       <c r="J567" s="11"/>
-      <c r="K567" s="20" t="s">
-        <v>390</v>
+      <c r="K567" s="56">
+        <v>44718</v>
       </c>
     </row>
     <row r="568" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A568" s="40"/>
       <c r="B568" s="20" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="C568" s="13"/>
       <c r="D568" s="39">
-        <v>2</v>
+        <v>0.54800000000000004</v>
       </c>
       <c r="E568" s="9"/>
       <c r="F568" s="20"/>
@@ -16532,65 +16534,65 @@
       <c r="H568" s="39"/>
       <c r="I568" s="9"/>
       <c r="J568" s="11"/>
-      <c r="K568" s="20" t="s">
-        <v>405</v>
-      </c>
+      <c r="K568" s="56"/>
     </row>
     <row r="569" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A569" s="40"/>
+      <c r="A569" s="40">
+        <f>EDATE(A566,1)</f>
+        <v>44743</v>
+      </c>
       <c r="B569" s="20" t="s">
-        <v>406</v>
-      </c>
-      <c r="C569" s="13"/>
+        <v>63</v>
+      </c>
+      <c r="C569" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D569" s="39">
-        <v>0.47699999999999998</v>
+        <v>3</v>
       </c>
       <c r="E569" s="9"/>
       <c r="F569" s="20"/>
-      <c r="G569" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G569" s="42">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H569" s="39"/>
       <c r="I569" s="9"/>
       <c r="J569" s="11"/>
-      <c r="K569" s="20"/>
+      <c r="K569" s="20" t="s">
+        <v>390</v>
+      </c>
     </row>
     <row r="570" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A570" s="40">
-        <f>EDATE(A567,1)</f>
-        <v>44774</v>
-      </c>
+      <c r="A570" s="40"/>
       <c r="B570" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="C570" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D570" s="39"/>
+        <v>404</v>
+      </c>
+      <c r="C570" s="13"/>
+      <c r="D570" s="39">
+        <v>2</v>
+      </c>
       <c r="E570" s="9"/>
       <c r="F570" s="20"/>
-      <c r="G570" s="42">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H570" s="39">
-        <v>1</v>
-      </c>
+      <c r="G570" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H570" s="39"/>
       <c r="I570" s="9"/>
       <c r="J570" s="11"/>
-      <c r="K570" s="56">
-        <v>44789</v>
+      <c r="K570" s="20" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="571" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A571" s="40"/>
       <c r="B571" s="20" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="C571" s="13"/>
       <c r="D571" s="39">
-        <v>0.64</v>
+        <v>0.47699999999999998</v>
       </c>
       <c r="E571" s="9"/>
       <c r="F571" s="20"/>
@@ -16601,43 +16603,43 @@
       <c r="H571" s="39"/>
       <c r="I571" s="9"/>
       <c r="J571" s="11"/>
-      <c r="K571" s="56"/>
+      <c r="K571" s="20"/>
     </row>
     <row r="572" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A572" s="40">
-        <f>EDATE(A570,1)</f>
-        <v>44805</v>
-      </c>
-      <c r="B572" s="15" t="s">
-        <v>59</v>
+        <f>EDATE(A569,1)</f>
+        <v>44774</v>
+      </c>
+      <c r="B572" s="20" t="s">
+        <v>52</v>
       </c>
       <c r="C572" s="13">
         <v>1.25</v>
       </c>
-      <c r="D572" s="43">
-        <v>2</v>
-      </c>
-      <c r="E572" s="51"/>
-      <c r="F572" s="15"/>
+      <c r="D572" s="39"/>
+      <c r="E572" s="9"/>
+      <c r="F572" s="20"/>
       <c r="G572" s="42">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H572" s="43"/>
-      <c r="I572" s="51"/>
-      <c r="J572" s="12"/>
-      <c r="K572" s="15" t="s">
-        <v>392</v>
+      <c r="H572" s="39">
+        <v>1</v>
+      </c>
+      <c r="I572" s="9"/>
+      <c r="J572" s="11"/>
+      <c r="K572" s="56">
+        <v>44789</v>
       </c>
     </row>
     <row r="573" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A573" s="40"/>
       <c r="B573" s="20" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="C573" s="13"/>
       <c r="D573" s="39">
-        <v>3</v>
+        <v>0.64</v>
       </c>
       <c r="E573" s="9"/>
       <c r="F573" s="20"/>
@@ -16648,65 +16650,65 @@
       <c r="H573" s="39"/>
       <c r="I573" s="9"/>
       <c r="J573" s="11"/>
-      <c r="K573" s="20" t="s">
-        <v>401</v>
-      </c>
+      <c r="K573" s="56"/>
     </row>
     <row r="574" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A574" s="40"/>
-      <c r="B574" s="20" t="s">
-        <v>402</v>
-      </c>
-      <c r="C574" s="13"/>
-      <c r="D574" s="39">
-        <v>0.11900000000000001</v>
-      </c>
-      <c r="E574" s="9"/>
-      <c r="F574" s="20"/>
-      <c r="G574" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H574" s="39"/>
-      <c r="I574" s="9"/>
-      <c r="J574" s="11"/>
-      <c r="K574" s="20"/>
+      <c r="A574" s="40">
+        <f>EDATE(A572,1)</f>
+        <v>44805</v>
+      </c>
+      <c r="B574" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C574" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D574" s="43">
+        <v>2</v>
+      </c>
+      <c r="E574" s="51"/>
+      <c r="F574" s="15"/>
+      <c r="G574" s="42">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H574" s="43"/>
+      <c r="I574" s="51"/>
+      <c r="J574" s="12"/>
+      <c r="K574" s="15" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="575" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A575" s="40">
-        <f>EDATE(A572,1)</f>
-        <v>44835</v>
-      </c>
+      <c r="A575" s="40"/>
       <c r="B575" s="20" t="s">
-        <v>395</v>
-      </c>
-      <c r="C575" s="13">
-        <v>1.25</v>
-      </c>
+        <v>400</v>
+      </c>
+      <c r="C575" s="13"/>
       <c r="D575" s="39">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E575" s="9"/>
       <c r="F575" s="20"/>
-      <c r="G575" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G575" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H575" s="39"/>
       <c r="I575" s="9"/>
       <c r="J575" s="11"/>
-      <c r="K575" s="56">
-        <v>44841</v>
+      <c r="K575" s="20" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="576" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A576" s="40"/>
       <c r="B576" s="20" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="C576" s="13"/>
       <c r="D576" s="39">
-        <v>0.39600000000000002</v>
+        <v>0.11900000000000001</v>
       </c>
       <c r="E576" s="9"/>
       <c r="F576" s="20"/>
@@ -16717,15 +16719,15 @@
       <c r="H576" s="39"/>
       <c r="I576" s="9"/>
       <c r="J576" s="11"/>
-      <c r="K576" s="56"/>
+      <c r="K576" s="20"/>
     </row>
     <row r="577" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A577" s="40">
-        <f>EDATE(A575,1)</f>
-        <v>44866</v>
+        <f>EDATE(A574,1)</f>
+        <v>44835</v>
       </c>
       <c r="B577" s="20" t="s">
-        <v>53</v>
+        <v>395</v>
       </c>
       <c r="C577" s="13">
         <v>1.25</v>
@@ -16743,17 +16745,17 @@
       <c r="I577" s="9"/>
       <c r="J577" s="11"/>
       <c r="K577" s="56">
-        <v>44886</v>
+        <v>44841</v>
       </c>
     </row>
     <row r="578" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A578" s="40"/>
       <c r="B578" s="20" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C578" s="13"/>
       <c r="D578" s="39">
-        <v>0.15000000000000002</v>
+        <v>0.39600000000000002</v>
       </c>
       <c r="E578" s="9"/>
       <c r="F578" s="20"/>
@@ -16769,10 +16771,10 @@
     <row r="579" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A579" s="40">
         <f>EDATE(A577,1)</f>
-        <v>44896</v>
+        <v>44866</v>
       </c>
       <c r="B579" s="20" t="s">
-        <v>395</v>
+        <v>53</v>
       </c>
       <c r="C579" s="13">
         <v>1.25</v>
@@ -16790,17 +16792,17 @@
       <c r="I579" s="9"/>
       <c r="J579" s="11"/>
       <c r="K579" s="56">
-        <v>44916</v>
+        <v>44886</v>
       </c>
     </row>
     <row r="580" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A580" s="40"/>
       <c r="B580" s="20" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="C580" s="13"/>
       <c r="D580" s="39">
-        <v>0.83299999999999996</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="E580" s="9"/>
       <c r="F580" s="20"/>
@@ -16811,41 +16813,49 @@
       <c r="H580" s="39"/>
       <c r="I580" s="9"/>
       <c r="J580" s="11"/>
-      <c r="K580" s="20"/>
+      <c r="K580" s="56"/>
     </row>
     <row r="581" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A581" s="48" t="s">
-        <v>391</v>
-      </c>
-      <c r="B581" s="20"/>
-      <c r="C581" s="13"/>
-      <c r="D581" s="39"/>
+      <c r="A581" s="40">
+        <f>EDATE(A579,1)</f>
+        <v>44896</v>
+      </c>
+      <c r="B581" s="20" t="s">
+        <v>395</v>
+      </c>
+      <c r="C581" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D581" s="39">
+        <v>1</v>
+      </c>
       <c r="E581" s="9"/>
       <c r="F581" s="20"/>
-      <c r="G581" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G581" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H581" s="39"/>
       <c r="I581" s="9"/>
       <c r="J581" s="11"/>
-      <c r="K581" s="20"/>
+      <c r="K581" s="56">
+        <v>44916</v>
+      </c>
     </row>
     <row r="582" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A582" s="40">
-        <f>EDATE(A579,1)</f>
-        <v>44927</v>
-      </c>
-      <c r="B582" s="20"/>
-      <c r="C582" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D582" s="39"/>
+      <c r="A582" s="40"/>
+      <c r="B582" s="20" t="s">
+        <v>396</v>
+      </c>
+      <c r="C582" s="13"/>
+      <c r="D582" s="39">
+        <v>0.83299999999999996</v>
+      </c>
       <c r="E582" s="9"/>
       <c r="F582" s="20"/>
-      <c r="G582" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G582" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H582" s="39"/>
       <c r="I582" s="9"/>
@@ -16853,36 +16863,27 @@
       <c r="K582" s="20"/>
     </row>
     <row r="583" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A583" s="40">
-        <f t="shared" ref="A583:A586" si="29">EDATE(A582,1)</f>
-        <v>44958</v>
-      </c>
-      <c r="B583" s="20" t="s">
-        <v>266</v>
-      </c>
-      <c r="C583" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="A583" s="48" t="s">
+        <v>391</v>
+      </c>
+      <c r="B583" s="20"/>
+      <c r="C583" s="13"/>
       <c r="D583" s="39"/>
       <c r="E583" s="9"/>
       <c r="F583" s="20"/>
-      <c r="G583" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H583" s="39">
-        <v>1.5</v>
-      </c>
+      <c r="G583" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H583" s="39"/>
       <c r="I583" s="9"/>
       <c r="J583" s="11"/>
-      <c r="K583" s="20" t="s">
-        <v>393</v>
-      </c>
+      <c r="K583" s="20"/>
     </row>
     <row r="584" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A584" s="40">
-        <f t="shared" si="29"/>
-        <v>44986</v>
+        <f>EDATE(A581,1)</f>
+        <v>44927</v>
       </c>
       <c r="B584" s="20"/>
       <c r="C584" s="13">
@@ -16902,45 +16903,41 @@
     </row>
     <row r="585" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A585" s="40">
-        <f t="shared" si="29"/>
-        <v>45017</v>
+        <f t="shared" ref="A585:A588" si="29">EDATE(A584,1)</f>
+        <v>44958</v>
       </c>
       <c r="B585" s="20" t="s">
-        <v>53</v>
+        <v>266</v>
       </c>
       <c r="C585" s="13">
         <v>1.25</v>
       </c>
-      <c r="D585" s="39">
-        <v>1</v>
-      </c>
+      <c r="D585" s="39"/>
       <c r="E585" s="9"/>
       <c r="F585" s="20"/>
       <c r="G585" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H585" s="39"/>
+      <c r="H585" s="39">
+        <v>1.5</v>
+      </c>
       <c r="I585" s="9"/>
       <c r="J585" s="11"/>
-      <c r="K585" s="56">
-        <v>45044</v>
+      <c r="K585" s="20" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="586" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A586" s="40">
         <f t="shared" si="29"/>
-        <v>45047</v>
-      </c>
-      <c r="B586" s="20" t="s">
-        <v>53</v>
-      </c>
+        <v>44986</v>
+      </c>
+      <c r="B586" s="20"/>
       <c r="C586" s="13">
         <v>1.25</v>
       </c>
-      <c r="D586" s="39">
-        <v>1</v>
-      </c>
+      <c r="D586" s="39"/>
       <c r="E586" s="9"/>
       <c r="F586" s="20"/>
       <c r="G586" s="13">
@@ -16950,42 +16947,49 @@
       <c r="H586" s="39"/>
       <c r="I586" s="9"/>
       <c r="J586" s="11"/>
-      <c r="K586" s="56">
-        <v>45055</v>
-      </c>
+      <c r="K586" s="20"/>
     </row>
     <row r="587" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A587" s="40"/>
+      <c r="A587" s="40">
+        <f t="shared" si="29"/>
+        <v>45017</v>
+      </c>
       <c r="B587" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="C587" s="13"/>
-      <c r="D587" s="39"/>
+        <v>53</v>
+      </c>
+      <c r="C587" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D587" s="39">
+        <v>1</v>
+      </c>
       <c r="E587" s="9"/>
       <c r="F587" s="20"/>
-      <c r="G587" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H587" s="39">
-        <v>2</v>
-      </c>
+      <c r="G587" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H587" s="39"/>
       <c r="I587" s="9"/>
       <c r="J587" s="11"/>
-      <c r="K587" s="56" t="s">
-        <v>394</v>
+      <c r="K587" s="56">
+        <v>45044</v>
       </c>
     </row>
     <row r="588" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A588" s="40">
-        <f>EDATE(A586,1)</f>
-        <v>45078</v>
-      </c>
-      <c r="B588" s="20"/>
+        <f t="shared" si="29"/>
+        <v>45047</v>
+      </c>
+      <c r="B588" s="20" t="s">
+        <v>53</v>
+      </c>
       <c r="C588" s="13">
         <v>1.25</v>
       </c>
-      <c r="D588" s="39"/>
+      <c r="D588" s="39">
+        <v>1</v>
+      </c>
       <c r="E588" s="9"/>
       <c r="F588" s="20"/>
       <c r="G588" s="13">
@@ -16995,51 +16999,96 @@
       <c r="H588" s="39"/>
       <c r="I588" s="9"/>
       <c r="J588" s="11"/>
-      <c r="K588" s="20"/>
+      <c r="K588" s="56">
+        <v>45055</v>
+      </c>
     </row>
     <row r="589" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A589" s="40">
-        <v>45108</v>
-      </c>
+      <c r="A589" s="40"/>
       <c r="B589" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="C589" s="13">
-        <v>1.25</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="C589" s="13"/>
       <c r="D589" s="39"/>
       <c r="E589" s="9"/>
       <c r="F589" s="20"/>
-      <c r="G589" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G589" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H589" s="39">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I589" s="9"/>
       <c r="J589" s="11"/>
-      <c r="K589" s="20" t="s">
-        <v>397</v>
+      <c r="K589" s="56" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="590" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A590" s="40">
-        <v>45139</v>
+        <f>EDATE(A588,1)</f>
+        <v>45078</v>
       </c>
       <c r="B590" s="20"/>
-      <c r="C590" s="13"/>
+      <c r="C590" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D590" s="39"/>
       <c r="E590" s="9"/>
       <c r="F590" s="20"/>
-      <c r="G590" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G590" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H590" s="39"/>
       <c r="I590" s="9"/>
       <c r="J590" s="11"/>
       <c r="K590" s="20"/>
+    </row>
+    <row r="591" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A591" s="40">
+        <v>45108</v>
+      </c>
+      <c r="B591" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C591" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D591" s="39"/>
+      <c r="E591" s="9"/>
+      <c r="F591" s="20"/>
+      <c r="G591" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H591" s="39">
+        <v>4</v>
+      </c>
+      <c r="I591" s="9"/>
+      <c r="J591" s="11"/>
+      <c r="K591" s="20" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="592" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A592" s="40">
+        <v>45139</v>
+      </c>
+      <c r="B592" s="20"/>
+      <c r="C592" s="13"/>
+      <c r="D592" s="39"/>
+      <c r="E592" s="9"/>
+      <c r="F592" s="20"/>
+      <c r="G592" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H592" s="39"/>
+      <c r="I592" s="9"/>
+      <c r="J592" s="11"/>
+      <c r="K592" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -17157,14 +17206,14 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="G3" s="47">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>0.54800000000000004</v>
+        <v>9.4E-2</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="35">

--- a/REGULAR/CTO/DE OCAMPO, MARISSA.xlsx
+++ b/REGULAR/CTO/DE OCAMPO, MARISSA.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\CTO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\CTO\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="410">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1269,6 +1269,9 @@
   </si>
   <si>
     <t>UT(0-0-45)</t>
+  </si>
+  <si>
+    <t>8/31 - 9/1/2023</t>
   </si>
 </sst>
 </file>
@@ -3697,7 +3700,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K592" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K595" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -4075,12 +4078,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K592"/>
+  <dimension ref="A2:K595"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="2520" topLeftCell="A557" activePane="bottomLeft"/>
-      <selection activeCell="F8" sqref="F8"/>
-      <selection pane="bottomLeft" activeCell="F567" sqref="F567"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="2520" topLeftCell="A581" activePane="bottomLeft"/>
+      <selection activeCell="H3" sqref="H3"/>
+      <selection pane="bottomLeft" activeCell="K594" sqref="K594"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4251,7 +4254,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>125.25300000000001</v>
+        <v>123.50300000000001</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -16359,11 +16362,15 @@
         <f t="shared" ref="A561:A562" si="28">EDATE(A560,1)</f>
         <v>44621</v>
       </c>
-      <c r="B561" s="20"/>
+      <c r="B561" s="20" t="s">
+        <v>69</v>
+      </c>
       <c r="C561" s="13">
         <v>1.25</v>
       </c>
-      <c r="D561" s="39"/>
+      <c r="D561" s="39">
+        <v>0.25</v>
+      </c>
       <c r="E561" s="9"/>
       <c r="F561" s="20"/>
       <c r="G561" s="42">
@@ -17076,19 +17083,91 @@
       <c r="A592" s="40">
         <v>45139</v>
       </c>
-      <c r="B592" s="20"/>
-      <c r="C592" s="13"/>
+      <c r="B592" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C592" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D592" s="39"/>
       <c r="E592" s="9"/>
       <c r="F592" s="20"/>
-      <c r="G592" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H592" s="39"/>
+      <c r="G592" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H592" s="39">
+        <v>2</v>
+      </c>
       <c r="I592" s="9"/>
       <c r="J592" s="11"/>
-      <c r="K592" s="20"/>
+      <c r="K592" s="20" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="593" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A593" s="40">
+        <v>45170</v>
+      </c>
+      <c r="B593" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C593" s="13"/>
+      <c r="D593" s="39"/>
+      <c r="E593" s="9"/>
+      <c r="F593" s="20"/>
+      <c r="G593" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H593" s="39">
+        <v>1</v>
+      </c>
+      <c r="I593" s="9"/>
+      <c r="J593" s="11"/>
+      <c r="K593" s="56">
+        <v>45177</v>
+      </c>
+    </row>
+    <row r="594" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A594" s="40"/>
+      <c r="B594" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C594" s="13"/>
+      <c r="D594" s="39">
+        <v>1</v>
+      </c>
+      <c r="E594" s="9"/>
+      <c r="F594" s="20"/>
+      <c r="G594" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H594" s="39"/>
+      <c r="I594" s="9"/>
+      <c r="J594" s="11"/>
+      <c r="K594" s="56">
+        <v>45195</v>
+      </c>
+    </row>
+    <row r="595" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A595" s="41">
+        <v>45200</v>
+      </c>
+      <c r="B595" s="15"/>
+      <c r="C595" s="42"/>
+      <c r="D595" s="43"/>
+      <c r="E595" s="51"/>
+      <c r="F595" s="15"/>
+      <c r="G595" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H595" s="43"/>
+      <c r="I595" s="51"/>
+      <c r="J595" s="12"/>
+      <c r="K595" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -17206,14 +17285,14 @@
         <v>0</v>
       </c>
       <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
         <v>0</v>
-      </c>
-      <c r="F3">
-        <v>45</v>
       </c>
       <c r="G3" s="47">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>9.4E-2</v>
+        <v>0.25</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="35">

--- a/REGULAR/CTO/DE OCAMPO, MARISSA.xlsx
+++ b/REGULAR/CTO/DE OCAMPO, MARISSA.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="412">
   <si>
     <t>PERIOD</t>
   </si>
@@ -2171,7 +2171,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2214,7 +2214,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2278,7 +2278,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2338,7 +2338,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2404,7 +2404,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2467,7 +2467,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2565,7 +2565,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2624,7 +2624,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2689,7 +2689,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2732,7 +2732,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2807,7 +2807,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2993,7 +2993,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3059,7 +3059,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3117,7 +3117,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3183,7 +3183,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3239,7 +3239,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3314,7 +3314,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3357,7 +3357,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3423,7 +3423,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3479,7 +3479,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3577,7 +3577,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3640,7 +3640,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3706,7 +3706,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K598" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K599" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -4084,12 +4084,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K598"/>
+  <dimension ref="A2:K599"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="2520" topLeftCell="A578" activePane="bottomLeft"/>
       <selection activeCell="H3" sqref="H3"/>
-      <selection pane="bottomLeft" activeCell="I596" sqref="I596"/>
+      <selection pane="bottomLeft" activeCell="F588" sqref="F588"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4250,7 +4250,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>88.237999999999857</v>
+        <v>88.487999999999857</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4260,7 +4260,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>124.25300000000001</v>
+        <v>125.50300000000001</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -17234,21 +17234,42 @@
       <c r="B598" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="C598" s="13"/>
+      <c r="C598" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D598" s="39">
         <v>2</v>
       </c>
       <c r="E598" s="9"/>
       <c r="F598" s="20"/>
-      <c r="G598" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G598" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H598" s="39"/>
       <c r="I598" s="9"/>
       <c r="J598" s="11"/>
       <c r="K598" s="20" t="s">
         <v>411</v>
+      </c>
+    </row>
+    <row r="599" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A599" s="40"/>
+      <c r="B599" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="C599" s="13"/>
+      <c r="D599" s="39">
+        <v>1</v>
+      </c>
+      <c r="E599" s="9"/>
+      <c r="F599" s="20"/>
+      <c r="G599" s="13"/>
+      <c r="H599" s="39"/>
+      <c r="I599" s="9"/>
+      <c r="J599" s="11"/>
+      <c r="K599" s="56">
+        <v>45289</v>
       </c>
     </row>
   </sheetData>

--- a/REGULAR/CTO/DE OCAMPO, MARISSA.xlsx
+++ b/REGULAR/CTO/DE OCAMPO, MARISSA.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="420">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1278,6 +1278,30 @@
   </si>
   <si>
     <t>12/6,7/2023</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>UT(0-1-57)</t>
+  </si>
+  <si>
+    <t>UT(0-0-34)</t>
+  </si>
+  <si>
+    <t>10/30/2023 (27)</t>
+  </si>
+  <si>
+    <t>UT(0-0-28)</t>
+  </si>
+  <si>
+    <t>UT(0-0-22)</t>
+  </si>
+  <si>
+    <t>UT(0-1-43)</t>
+  </si>
+  <si>
+    <t>UT(0-0-39)</t>
   </si>
 </sst>
 </file>
@@ -1521,7 +1545,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1685,6 +1709,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3706,7 +3733,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K599" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K620" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -4084,12 +4111,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K599"/>
+  <dimension ref="A2:K620"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="2520" topLeftCell="A578" activePane="bottomLeft"/>
+      <pane ySplit="2520" topLeftCell="A584" activePane="bottomLeft"/>
       <selection activeCell="H3" sqref="H3"/>
-      <selection pane="bottomLeft" activeCell="F588" sqref="F588"/>
+      <selection pane="bottomLeft" activeCell="E598" sqref="E598"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4111,62 +4138,62 @@
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="59" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="58"/>
+      <c r="C2" s="59"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="65" t="s">
+      <c r="F2" s="66" t="s">
         <v>44</v>
       </c>
-      <c r="G2" s="65"/>
+      <c r="G2" s="66"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="61"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="66"/>
-      <c r="G3" s="63"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="64"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="63"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="58" t="s">
+      <c r="B4" s="59" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="58"/>
+      <c r="C4" s="59"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="63"/>
-      <c r="K4" s="64"/>
+      <c r="J4" s="64"/>
+      <c r="K4" s="65"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -4192,18 +4219,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57" t="s">
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -4250,7 +4277,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>88.487999999999857</v>
+        <v>87.772999999999826</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -17086,37 +17113,31 @@
       </c>
     </row>
     <row r="592" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A592" s="40">
-        <v>45139</v>
-      </c>
+      <c r="A592" s="40"/>
       <c r="B592" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="C592" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D592" s="39"/>
+        <v>419</v>
+      </c>
+      <c r="C592" s="13"/>
+      <c r="D592" s="39">
+        <v>8.1000000000000016E-2</v>
+      </c>
       <c r="E592" s="9"/>
       <c r="F592" s="20"/>
-      <c r="G592" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H592" s="39">
-        <v>2</v>
-      </c>
+      <c r="G592" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H592" s="39"/>
       <c r="I592" s="9"/>
       <c r="J592" s="11"/>
-      <c r="K592" s="20" t="s">
-        <v>409</v>
-      </c>
+      <c r="K592" s="20"/>
     </row>
     <row r="593" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A593" s="40">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B593" s="20" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C593" s="13">
         <v>1.25</v>
@@ -17129,22 +17150,22 @@
         <v>1.25</v>
       </c>
       <c r="H593" s="39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I593" s="9"/>
       <c r="J593" s="11"/>
-      <c r="K593" s="56">
-        <v>45177</v>
+      <c r="K593" s="20" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="594" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A594" s="40"/>
       <c r="B594" s="20" t="s">
-        <v>53</v>
+        <v>418</v>
       </c>
       <c r="C594" s="13"/>
       <c r="D594" s="39">
-        <v>1</v>
+        <v>0.215</v>
       </c>
       <c r="E594" s="9"/>
       <c r="F594" s="20"/>
@@ -17155,122 +17176,520 @@
       <c r="H594" s="39"/>
       <c r="I594" s="9"/>
       <c r="J594" s="11"/>
-      <c r="K594" s="56">
-        <v>45195</v>
-      </c>
+      <c r="K594" s="20"/>
     </row>
     <row r="595" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A595" s="41">
-        <v>45200</v>
-      </c>
-      <c r="B595" s="15" t="s">
-        <v>55</v>
+      <c r="A595" s="40">
+        <v>45170</v>
+      </c>
+      <c r="B595" s="20" t="s">
+        <v>52</v>
       </c>
       <c r="C595" s="13">
         <v>1.25</v>
       </c>
-      <c r="D595" s="43"/>
-      <c r="E595" s="51"/>
-      <c r="F595" s="15"/>
-      <c r="G595" s="42">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H595" s="43">
-        <v>2</v>
-      </c>
-      <c r="I595" s="51"/>
-      <c r="J595" s="12"/>
-      <c r="K595" s="15" t="s">
-        <v>410</v>
+      <c r="D595" s="39"/>
+      <c r="E595" s="9"/>
+      <c r="F595" s="20"/>
+      <c r="G595" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H595" s="39">
+        <v>1</v>
+      </c>
+      <c r="I595" s="9"/>
+      <c r="J595" s="11"/>
+      <c r="K595" s="56">
+        <v>45177</v>
       </c>
     </row>
     <row r="596" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A596" s="40"/>
       <c r="B596" s="20" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C596" s="13"/>
-      <c r="D596" s="39"/>
+      <c r="D596" s="39">
+        <v>1</v>
+      </c>
       <c r="E596" s="9"/>
       <c r="F596" s="20"/>
       <c r="G596" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H596" s="39">
-        <v>1</v>
-      </c>
+      <c r="H596" s="39"/>
       <c r="I596" s="9"/>
       <c r="J596" s="11"/>
       <c r="K596" s="56">
-        <v>45229</v>
+        <v>45195</v>
       </c>
     </row>
     <row r="597" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A597" s="41">
-        <v>45231</v>
-      </c>
-      <c r="B597" s="20"/>
-      <c r="C597" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D597" s="39"/>
+      <c r="A597" s="40"/>
+      <c r="B597" s="20" t="s">
+        <v>417</v>
+      </c>
+      <c r="C597" s="13"/>
+      <c r="D597" s="39">
+        <v>4.6000000000000006E-2</v>
+      </c>
       <c r="E597" s="9"/>
       <c r="F597" s="20"/>
-      <c r="G597" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G597" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H597" s="39"/>
       <c r="I597" s="9"/>
       <c r="J597" s="11"/>
-      <c r="K597" s="20"/>
+      <c r="K597" s="56"/>
     </row>
     <row r="598" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A598" s="41">
-        <v>45261</v>
-      </c>
-      <c r="B598" s="20" t="s">
-        <v>68</v>
+        <v>45200</v>
+      </c>
+      <c r="B598" s="15" t="s">
+        <v>55</v>
       </c>
       <c r="C598" s="13">
         <v>1.25</v>
       </c>
-      <c r="D598" s="39">
+      <c r="D598" s="43"/>
+      <c r="E598" s="51"/>
+      <c r="F598" s="15"/>
+      <c r="G598" s="42">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H598" s="43">
         <v>2</v>
       </c>
-      <c r="E598" s="9"/>
-      <c r="F598" s="20"/>
-      <c r="G598" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H598" s="39"/>
-      <c r="I598" s="9"/>
-      <c r="J598" s="11"/>
-      <c r="K598" s="20" t="s">
-        <v>411</v>
+      <c r="I598" s="51"/>
+      <c r="J598" s="12"/>
+      <c r="K598" s="15" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="599" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A599" s="40"/>
       <c r="B599" s="20" t="s">
-        <v>188</v>
+        <v>52</v>
       </c>
       <c r="C599" s="13"/>
-      <c r="D599" s="39">
-        <v>1</v>
-      </c>
+      <c r="D599" s="39"/>
       <c r="E599" s="9"/>
       <c r="F599" s="20"/>
-      <c r="G599" s="13"/>
-      <c r="H599" s="39"/>
+      <c r="G599" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H599" s="39">
+        <v>1</v>
+      </c>
       <c r="I599" s="9"/>
       <c r="J599" s="11"/>
-      <c r="K599" s="56">
+      <c r="K599" s="56" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="600" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A600" s="40"/>
+      <c r="B600" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="C600" s="13"/>
+      <c r="D600" s="39">
+        <v>5.8000000000000017E-2</v>
+      </c>
+      <c r="E600" s="9"/>
+      <c r="F600" s="20"/>
+      <c r="G600" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H600" s="39"/>
+      <c r="I600" s="9"/>
+      <c r="J600" s="11"/>
+      <c r="K600" s="56"/>
+    </row>
+    <row r="601" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A601" s="41">
+        <v>45231</v>
+      </c>
+      <c r="B601" s="20" t="s">
+        <v>414</v>
+      </c>
+      <c r="C601" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D601" s="39">
+        <v>7.1000000000000008E-2</v>
+      </c>
+      <c r="E601" s="9"/>
+      <c r="F601" s="20"/>
+      <c r="G601" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H601" s="39"/>
+      <c r="I601" s="9"/>
+      <c r="J601" s="11"/>
+      <c r="K601" s="20"/>
+    </row>
+    <row r="602" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A602" s="41">
+        <v>45261</v>
+      </c>
+      <c r="B602" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="C602" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D602" s="39">
+        <v>2</v>
+      </c>
+      <c r="E602" s="9"/>
+      <c r="F602" s="20"/>
+      <c r="G602" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H602" s="39"/>
+      <c r="I602" s="9"/>
+      <c r="J602" s="11"/>
+      <c r="K602" s="20" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="603" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A603" s="40"/>
+      <c r="B603" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="C603" s="13"/>
+      <c r="D603" s="39">
+        <v>1</v>
+      </c>
+      <c r="E603" s="9"/>
+      <c r="F603" s="20"/>
+      <c r="G603" s="13"/>
+      <c r="H603" s="39"/>
+      <c r="I603" s="9"/>
+      <c r="J603" s="11"/>
+      <c r="K603" s="56">
         <v>45289</v>
       </c>
+    </row>
+    <row r="604" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A604" s="40"/>
+      <c r="B604" s="20" t="s">
+        <v>413</v>
+      </c>
+      <c r="C604" s="13"/>
+      <c r="D604" s="39">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="E604" s="9"/>
+      <c r="F604" s="20"/>
+      <c r="G604" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H604" s="39"/>
+      <c r="I604" s="9"/>
+      <c r="J604" s="11"/>
+      <c r="K604" s="56"/>
+    </row>
+    <row r="605" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A605" s="57" t="s">
+        <v>412</v>
+      </c>
+      <c r="B605" s="15"/>
+      <c r="C605" s="42"/>
+      <c r="D605" s="43"/>
+      <c r="E605" s="51"/>
+      <c r="F605" s="15"/>
+      <c r="G605" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H605" s="43"/>
+      <c r="I605" s="51"/>
+      <c r="J605" s="12"/>
+      <c r="K605" s="15"/>
+    </row>
+    <row r="606" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A606" s="40">
+        <v>45292</v>
+      </c>
+      <c r="B606" s="20"/>
+      <c r="C606" s="13"/>
+      <c r="D606" s="39"/>
+      <c r="E606" s="9"/>
+      <c r="F606" s="20"/>
+      <c r="G606" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H606" s="39"/>
+      <c r="I606" s="9"/>
+      <c r="J606" s="11"/>
+      <c r="K606" s="20"/>
+    </row>
+    <row r="607" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A607" s="40">
+        <v>45323</v>
+      </c>
+      <c r="B607" s="20"/>
+      <c r="C607" s="13"/>
+      <c r="D607" s="39"/>
+      <c r="E607" s="9"/>
+      <c r="F607" s="20"/>
+      <c r="G607" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H607" s="39"/>
+      <c r="I607" s="9"/>
+      <c r="J607" s="11"/>
+      <c r="K607" s="20"/>
+    </row>
+    <row r="608" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A608" s="40">
+        <v>45352</v>
+      </c>
+      <c r="B608" s="20"/>
+      <c r="C608" s="13"/>
+      <c r="D608" s="39"/>
+      <c r="E608" s="9"/>
+      <c r="F608" s="20"/>
+      <c r="G608" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H608" s="39"/>
+      <c r="I608" s="9"/>
+      <c r="J608" s="11"/>
+      <c r="K608" s="20"/>
+    </row>
+    <row r="609" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A609" s="40">
+        <v>45383</v>
+      </c>
+      <c r="B609" s="20"/>
+      <c r="C609" s="13"/>
+      <c r="D609" s="39"/>
+      <c r="E609" s="9"/>
+      <c r="F609" s="20"/>
+      <c r="G609" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H609" s="39"/>
+      <c r="I609" s="9"/>
+      <c r="J609" s="11"/>
+      <c r="K609" s="20"/>
+    </row>
+    <row r="610" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A610" s="40">
+        <v>45413</v>
+      </c>
+      <c r="B610" s="20"/>
+      <c r="C610" s="13"/>
+      <c r="D610" s="39"/>
+      <c r="E610" s="9"/>
+      <c r="F610" s="20"/>
+      <c r="G610" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H610" s="39"/>
+      <c r="I610" s="9"/>
+      <c r="J610" s="11"/>
+      <c r="K610" s="20"/>
+    </row>
+    <row r="611" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A611" s="40">
+        <v>45444</v>
+      </c>
+      <c r="B611" s="20"/>
+      <c r="C611" s="13"/>
+      <c r="D611" s="39"/>
+      <c r="E611" s="9"/>
+      <c r="F611" s="20"/>
+      <c r="G611" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H611" s="39"/>
+      <c r="I611" s="9"/>
+      <c r="J611" s="11"/>
+      <c r="K611" s="20"/>
+    </row>
+    <row r="612" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A612" s="40">
+        <v>45474</v>
+      </c>
+      <c r="B612" s="20"/>
+      <c r="C612" s="13"/>
+      <c r="D612" s="39"/>
+      <c r="E612" s="9"/>
+      <c r="F612" s="20"/>
+      <c r="G612" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H612" s="39"/>
+      <c r="I612" s="9"/>
+      <c r="J612" s="11"/>
+      <c r="K612" s="20"/>
+    </row>
+    <row r="613" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A613" s="40">
+        <v>45505</v>
+      </c>
+      <c r="B613" s="20"/>
+      <c r="C613" s="13"/>
+      <c r="D613" s="39"/>
+      <c r="E613" s="9"/>
+      <c r="F613" s="20"/>
+      <c r="G613" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H613" s="39"/>
+      <c r="I613" s="9"/>
+      <c r="J613" s="11"/>
+      <c r="K613" s="20"/>
+    </row>
+    <row r="614" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A614" s="40">
+        <v>45536</v>
+      </c>
+      <c r="B614" s="20"/>
+      <c r="C614" s="13"/>
+      <c r="D614" s="39"/>
+      <c r="E614" s="9"/>
+      <c r="F614" s="20"/>
+      <c r="G614" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H614" s="39"/>
+      <c r="I614" s="9"/>
+      <c r="J614" s="11"/>
+      <c r="K614" s="20"/>
+    </row>
+    <row r="615" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A615" s="40">
+        <v>45566</v>
+      </c>
+      <c r="B615" s="20"/>
+      <c r="C615" s="13"/>
+      <c r="D615" s="39"/>
+      <c r="E615" s="9"/>
+      <c r="F615" s="20"/>
+      <c r="G615" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H615" s="39"/>
+      <c r="I615" s="9"/>
+      <c r="J615" s="11"/>
+      <c r="K615" s="20"/>
+    </row>
+    <row r="616" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A616" s="40">
+        <v>45597</v>
+      </c>
+      <c r="B616" s="20"/>
+      <c r="C616" s="13"/>
+      <c r="D616" s="39"/>
+      <c r="E616" s="9"/>
+      <c r="F616" s="20"/>
+      <c r="G616" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H616" s="39"/>
+      <c r="I616" s="9"/>
+      <c r="J616" s="11"/>
+      <c r="K616" s="20"/>
+    </row>
+    <row r="617" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A617" s="40">
+        <v>45627</v>
+      </c>
+      <c r="B617" s="20"/>
+      <c r="C617" s="13"/>
+      <c r="D617" s="39"/>
+      <c r="E617" s="9"/>
+      <c r="F617" s="20"/>
+      <c r="G617" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H617" s="39"/>
+      <c r="I617" s="9"/>
+      <c r="J617" s="11"/>
+      <c r="K617" s="20"/>
+    </row>
+    <row r="618" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A618" s="40">
+        <v>45658</v>
+      </c>
+      <c r="B618" s="20"/>
+      <c r="C618" s="13"/>
+      <c r="D618" s="39"/>
+      <c r="E618" s="9"/>
+      <c r="F618" s="20"/>
+      <c r="G618" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H618" s="39"/>
+      <c r="I618" s="9"/>
+      <c r="J618" s="11"/>
+      <c r="K618" s="20"/>
+    </row>
+    <row r="619" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A619" s="40">
+        <v>45689</v>
+      </c>
+      <c r="B619" s="20"/>
+      <c r="C619" s="13"/>
+      <c r="D619" s="39"/>
+      <c r="E619" s="9"/>
+      <c r="F619" s="20"/>
+      <c r="G619" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H619" s="39"/>
+      <c r="I619" s="9"/>
+      <c r="J619" s="11"/>
+      <c r="K619" s="20"/>
+    </row>
+    <row r="620" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A620" s="40">
+        <v>45717</v>
+      </c>
+      <c r="B620" s="15"/>
+      <c r="C620" s="42"/>
+      <c r="D620" s="43"/>
+      <c r="E620" s="51"/>
+      <c r="F620" s="15"/>
+      <c r="G620" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H620" s="43"/>
+      <c r="I620" s="51"/>
+      <c r="J620" s="12"/>
+      <c r="K620" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -17336,17 +17755,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D1" s="67" t="s">
+      <c r="D1" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="J1" s="68" t="s">
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="J1" s="69" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
@@ -17387,15 +17806,13 @@
       <c r="D3">
         <v>0</v>
       </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
+      <c r="E3"/>
       <c r="F3">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="G3" s="47">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>0.25</v>
+        <v>8.1000000000000016E-2</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="35">
@@ -17431,12 +17848,12 @@
         <v>30</v>
       </c>
       <c r="G6" s="44"/>
-      <c r="I6" s="68" t="s">
+      <c r="I6" s="69" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="68"/>
-      <c r="K6" s="68"/>
-      <c r="L6" s="68"/>
+      <c r="J6" s="69"/>
+      <c r="K6" s="69"/>
+      <c r="L6" s="69"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">

--- a/REGULAR/CTO/DE OCAMPO, MARISSA.xlsx
+++ b/REGULAR/CTO/DE OCAMPO, MARISSA.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="424">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1302,6 +1302,18 @@
   </si>
   <si>
     <t>UT(0-0-39)</t>
+  </si>
+  <si>
+    <t>UT(0-1-11)</t>
+  </si>
+  <si>
+    <t>UT(0-0-47)</t>
+  </si>
+  <si>
+    <t>UT(0-2-41)</t>
+  </si>
+  <si>
+    <t>UT(0-2-52)</t>
   </si>
 </sst>
 </file>
@@ -2198,7 +2210,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2241,7 +2253,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2305,7 +2317,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2365,7 +2377,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2431,7 +2443,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2494,7 +2506,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2592,7 +2604,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2651,7 +2663,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2716,7 +2728,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2759,7 +2771,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2834,7 +2846,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3020,7 +3032,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3086,7 +3098,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3144,7 +3156,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3210,7 +3222,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3266,7 +3278,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3341,7 +3353,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3384,7 +3396,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3450,7 +3462,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3506,7 +3518,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3604,7 +3616,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3667,7 +3679,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3733,7 +3745,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K620" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K623" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -4111,12 +4123,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K620"/>
+  <dimension ref="A2:K623"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="2520" topLeftCell="A584" activePane="bottomLeft"/>
+      <pane ySplit="2520" topLeftCell="A575" activePane="bottomLeft"/>
       <selection activeCell="H3" sqref="H3"/>
-      <selection pane="bottomLeft" activeCell="E598" sqref="E598"/>
+      <selection pane="bottomLeft" activeCell="F591" sqref="F591"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4277,7 +4289,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>87.772999999999826</v>
+        <v>86.752999999999787</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -16925,11 +16937,15 @@
         <f>EDATE(A581,1)</f>
         <v>44927</v>
       </c>
-      <c r="B584" s="20"/>
+      <c r="B584" s="20" t="s">
+        <v>419</v>
+      </c>
       <c r="C584" s="13">
         <v>1.25</v>
       </c>
-      <c r="D584" s="39"/>
+      <c r="D584" s="39">
+        <v>8.1000000000000016E-2</v>
+      </c>
       <c r="E584" s="9"/>
       <c r="F584" s="20"/>
       <c r="G584" s="13">
@@ -16969,20 +16985,19 @@
       </c>
     </row>
     <row r="586" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A586" s="40">
-        <f t="shared" si="29"/>
-        <v>44986</v>
-      </c>
-      <c r="B586" s="20"/>
-      <c r="C586" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D586" s="39"/>
+      <c r="A586" s="40"/>
+      <c r="B586" s="20" t="s">
+        <v>423</v>
+      </c>
+      <c r="C586" s="13"/>
+      <c r="D586" s="39">
+        <v>0.35799999999999998</v>
+      </c>
       <c r="E586" s="9"/>
       <c r="F586" s="20"/>
-      <c r="G586" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G586" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H586" s="39"/>
       <c r="I586" s="9"/>
@@ -16991,17 +17006,17 @@
     </row>
     <row r="587" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A587" s="40">
-        <f t="shared" si="29"/>
-        <v>45017</v>
+        <f>EDATE(A585,1)</f>
+        <v>44986</v>
       </c>
       <c r="B587" s="20" t="s">
-        <v>53</v>
+        <v>422</v>
       </c>
       <c r="C587" s="13">
         <v>1.25</v>
       </c>
       <c r="D587" s="39">
-        <v>1</v>
+        <v>0.33500000000000002</v>
       </c>
       <c r="E587" s="9"/>
       <c r="F587" s="20"/>
@@ -17012,14 +17027,12 @@
       <c r="H587" s="39"/>
       <c r="I587" s="9"/>
       <c r="J587" s="11"/>
-      <c r="K587" s="56">
-        <v>45044</v>
-      </c>
+      <c r="K587" s="20"/>
     </row>
     <row r="588" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A588" s="40">
         <f t="shared" si="29"/>
-        <v>45047</v>
+        <v>45017</v>
       </c>
       <c r="B588" s="20" t="s">
         <v>53</v>
@@ -17040,41 +17053,43 @@
       <c r="I588" s="9"/>
       <c r="J588" s="11"/>
       <c r="K588" s="56">
-        <v>45055</v>
+        <v>45044</v>
       </c>
     </row>
     <row r="589" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A589" s="40"/>
       <c r="B589" s="20" t="s">
-        <v>55</v>
+        <v>421</v>
       </c>
       <c r="C589" s="13"/>
-      <c r="D589" s="39"/>
+      <c r="D589" s="39">
+        <v>9.8000000000000004E-2</v>
+      </c>
       <c r="E589" s="9"/>
       <c r="F589" s="20"/>
       <c r="G589" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H589" s="39">
-        <v>2</v>
-      </c>
+      <c r="H589" s="39"/>
       <c r="I589" s="9"/>
       <c r="J589" s="11"/>
-      <c r="K589" s="56" t="s">
-        <v>394</v>
-      </c>
+      <c r="K589" s="56"/>
     </row>
     <row r="590" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A590" s="40">
         <f>EDATE(A588,1)</f>
-        <v>45078</v>
-      </c>
-      <c r="B590" s="20"/>
+        <v>45047</v>
+      </c>
+      <c r="B590" s="20" t="s">
+        <v>53</v>
+      </c>
       <c r="C590" s="13">
         <v>1.25</v>
       </c>
-      <c r="D590" s="39"/>
+      <c r="D590" s="39">
+        <v>1</v>
+      </c>
       <c r="E590" s="9"/>
       <c r="F590" s="20"/>
       <c r="G590" s="13">
@@ -17084,42 +17099,40 @@
       <c r="H590" s="39"/>
       <c r="I590" s="9"/>
       <c r="J590" s="11"/>
-      <c r="K590" s="20"/>
+      <c r="K590" s="56">
+        <v>45055</v>
+      </c>
     </row>
     <row r="591" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A591" s="40">
-        <v>45108</v>
-      </c>
+      <c r="A591" s="40"/>
       <c r="B591" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="C591" s="13">
-        <v>1.25</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="C591" s="13"/>
       <c r="D591" s="39"/>
       <c r="E591" s="9"/>
       <c r="F591" s="20"/>
-      <c r="G591" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G591" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H591" s="39">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I591" s="9"/>
       <c r="J591" s="11"/>
-      <c r="K591" s="20" t="s">
-        <v>397</v>
+      <c r="K591" s="56" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="592" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A592" s="40"/>
       <c r="B592" s="20" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C592" s="13"/>
       <c r="D592" s="39">
-        <v>8.1000000000000016E-2</v>
+        <v>0.14800000000000002</v>
       </c>
       <c r="E592" s="9"/>
       <c r="F592" s="20"/>
@@ -17130,15 +17143,14 @@
       <c r="H592" s="39"/>
       <c r="I592" s="9"/>
       <c r="J592" s="11"/>
-      <c r="K592" s="20"/>
+      <c r="K592" s="56"/>
     </row>
     <row r="593" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A593" s="40">
-        <v>45139</v>
-      </c>
-      <c r="B593" s="20" t="s">
-        <v>55</v>
-      </c>
+        <f>EDATE(A590,1)</f>
+        <v>45078</v>
+      </c>
+      <c r="B593" s="20"/>
       <c r="C593" s="13">
         <v>1.25</v>
       </c>
@@ -17149,91 +17161,91 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H593" s="39">
-        <v>2</v>
-      </c>
+      <c r="H593" s="39"/>
       <c r="I593" s="9"/>
       <c r="J593" s="11"/>
-      <c r="K593" s="20" t="s">
-        <v>409</v>
-      </c>
+      <c r="K593" s="20"/>
     </row>
     <row r="594" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A594" s="40"/>
+      <c r="A594" s="40">
+        <v>45108</v>
+      </c>
       <c r="B594" s="20" t="s">
-        <v>418</v>
-      </c>
-      <c r="C594" s="13"/>
-      <c r="D594" s="39">
-        <v>0.215</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="C594" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D594" s="39"/>
       <c r="E594" s="9"/>
       <c r="F594" s="20"/>
-      <c r="G594" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H594" s="39"/>
+      <c r="G594" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H594" s="39">
+        <v>4</v>
+      </c>
       <c r="I594" s="9"/>
       <c r="J594" s="11"/>
-      <c r="K594" s="20"/>
+      <c r="K594" s="20" t="s">
+        <v>397</v>
+      </c>
     </row>
     <row r="595" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A595" s="40">
-        <v>45170</v>
-      </c>
+      <c r="A595" s="40"/>
       <c r="B595" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="C595" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D595" s="39"/>
+        <v>419</v>
+      </c>
+      <c r="C595" s="13"/>
+      <c r="D595" s="39">
+        <v>8.1000000000000016E-2</v>
+      </c>
       <c r="E595" s="9"/>
       <c r="F595" s="20"/>
-      <c r="G595" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H595" s="39">
-        <v>1</v>
-      </c>
+      <c r="G595" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H595" s="39"/>
       <c r="I595" s="9"/>
       <c r="J595" s="11"/>
-      <c r="K595" s="56">
-        <v>45177</v>
-      </c>
+      <c r="K595" s="20"/>
     </row>
     <row r="596" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A596" s="40"/>
+      <c r="A596" s="40">
+        <v>45139</v>
+      </c>
       <c r="B596" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="C596" s="13"/>
-      <c r="D596" s="39">
-        <v>1</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="C596" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D596" s="39"/>
       <c r="E596" s="9"/>
       <c r="F596" s="20"/>
-      <c r="G596" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H596" s="39"/>
+      <c r="G596" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H596" s="39">
+        <v>2</v>
+      </c>
       <c r="I596" s="9"/>
       <c r="J596" s="11"/>
-      <c r="K596" s="56">
-        <v>45195</v>
+      <c r="K596" s="20" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="597" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A597" s="40"/>
       <c r="B597" s="20" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C597" s="13"/>
       <c r="D597" s="39">
-        <v>4.6000000000000006E-2</v>
+        <v>0.215</v>
       </c>
       <c r="E597" s="9"/>
       <c r="F597" s="20"/>
@@ -17244,64 +17256,64 @@
       <c r="H597" s="39"/>
       <c r="I597" s="9"/>
       <c r="J597" s="11"/>
-      <c r="K597" s="56"/>
+      <c r="K597" s="20"/>
     </row>
     <row r="598" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A598" s="41">
-        <v>45200</v>
-      </c>
-      <c r="B598" s="15" t="s">
-        <v>55</v>
+      <c r="A598" s="40">
+        <v>45170</v>
+      </c>
+      <c r="B598" s="20" t="s">
+        <v>52</v>
       </c>
       <c r="C598" s="13">
         <v>1.25</v>
       </c>
-      <c r="D598" s="43"/>
-      <c r="E598" s="51"/>
-      <c r="F598" s="15"/>
-      <c r="G598" s="42">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H598" s="43">
-        <v>2</v>
-      </c>
-      <c r="I598" s="51"/>
-      <c r="J598" s="12"/>
-      <c r="K598" s="15" t="s">
-        <v>410</v>
+      <c r="D598" s="39"/>
+      <c r="E598" s="9"/>
+      <c r="F598" s="20"/>
+      <c r="G598" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H598" s="39">
+        <v>1</v>
+      </c>
+      <c r="I598" s="9"/>
+      <c r="J598" s="11"/>
+      <c r="K598" s="56">
+        <v>45177</v>
       </c>
     </row>
     <row r="599" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A599" s="40"/>
       <c r="B599" s="20" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C599" s="13"/>
-      <c r="D599" s="39"/>
+      <c r="D599" s="39">
+        <v>1</v>
+      </c>
       <c r="E599" s="9"/>
       <c r="F599" s="20"/>
       <c r="G599" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H599" s="39">
-        <v>1</v>
-      </c>
+      <c r="H599" s="39"/>
       <c r="I599" s="9"/>
       <c r="J599" s="11"/>
-      <c r="K599" s="56" t="s">
-        <v>415</v>
+      <c r="K599" s="56">
+        <v>45195</v>
       </c>
     </row>
     <row r="600" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A600" s="40"/>
       <c r="B600" s="20" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C600" s="13"/>
       <c r="D600" s="39">
-        <v>5.8000000000000017E-2</v>
+        <v>4.6000000000000006E-2</v>
       </c>
       <c r="E600" s="9"/>
       <c r="F600" s="20"/>
@@ -17316,136 +17328,150 @@
     </row>
     <row r="601" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A601" s="41">
-        <v>45231</v>
-      </c>
-      <c r="B601" s="20" t="s">
-        <v>414</v>
+        <v>45200</v>
+      </c>
+      <c r="B601" s="15" t="s">
+        <v>55</v>
       </c>
       <c r="C601" s="13">
         <v>1.25</v>
       </c>
-      <c r="D601" s="39">
-        <v>7.1000000000000008E-2</v>
-      </c>
-      <c r="E601" s="9"/>
-      <c r="F601" s="20"/>
-      <c r="G601" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H601" s="39"/>
-      <c r="I601" s="9"/>
-      <c r="J601" s="11"/>
-      <c r="K601" s="20"/>
+      <c r="D601" s="43"/>
+      <c r="E601" s="51"/>
+      <c r="F601" s="15"/>
+      <c r="G601" s="42">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H601" s="43">
+        <v>2</v>
+      </c>
+      <c r="I601" s="51"/>
+      <c r="J601" s="12"/>
+      <c r="K601" s="15" t="s">
+        <v>410</v>
+      </c>
     </row>
     <row r="602" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A602" s="41">
-        <v>45261</v>
-      </c>
+      <c r="A602" s="40"/>
       <c r="B602" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="C602" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D602" s="39">
-        <v>2</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="C602" s="13"/>
+      <c r="D602" s="39"/>
       <c r="E602" s="9"/>
       <c r="F602" s="20"/>
-      <c r="G602" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H602" s="39"/>
+      <c r="G602" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H602" s="39">
+        <v>1</v>
+      </c>
       <c r="I602" s="9"/>
       <c r="J602" s="11"/>
-      <c r="K602" s="20" t="s">
-        <v>411</v>
+      <c r="K602" s="56" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="603" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A603" s="40"/>
       <c r="B603" s="20" t="s">
-        <v>188</v>
+        <v>416</v>
       </c>
       <c r="C603" s="13"/>
       <c r="D603" s="39">
-        <v>1</v>
+        <v>5.8000000000000017E-2</v>
       </c>
       <c r="E603" s="9"/>
       <c r="F603" s="20"/>
-      <c r="G603" s="13"/>
+      <c r="G603" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H603" s="39"/>
       <c r="I603" s="9"/>
       <c r="J603" s="11"/>
-      <c r="K603" s="56">
-        <v>45289</v>
-      </c>
+      <c r="K603" s="56"/>
     </row>
     <row r="604" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A604" s="40"/>
+      <c r="A604" s="41">
+        <v>45231</v>
+      </c>
       <c r="B604" s="20" t="s">
-        <v>413</v>
-      </c>
-      <c r="C604" s="13"/>
+        <v>414</v>
+      </c>
+      <c r="C604" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D604" s="39">
-        <v>0.24399999999999999</v>
+        <v>7.1000000000000008E-2</v>
       </c>
       <c r="E604" s="9"/>
       <c r="F604" s="20"/>
-      <c r="G604" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G604" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H604" s="39"/>
       <c r="I604" s="9"/>
       <c r="J604" s="11"/>
-      <c r="K604" s="56"/>
+      <c r="K604" s="20"/>
     </row>
     <row r="605" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A605" s="57" t="s">
-        <v>412</v>
-      </c>
-      <c r="B605" s="15"/>
-      <c r="C605" s="42"/>
-      <c r="D605" s="43"/>
-      <c r="E605" s="51"/>
-      <c r="F605" s="15"/>
-      <c r="G605" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H605" s="43"/>
-      <c r="I605" s="51"/>
-      <c r="J605" s="12"/>
-      <c r="K605" s="15"/>
+      <c r="A605" s="41">
+        <v>45261</v>
+      </c>
+      <c r="B605" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="C605" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D605" s="39">
+        <v>2</v>
+      </c>
+      <c r="E605" s="9"/>
+      <c r="F605" s="20"/>
+      <c r="G605" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H605" s="39"/>
+      <c r="I605" s="9"/>
+      <c r="J605" s="11"/>
+      <c r="K605" s="20" t="s">
+        <v>411</v>
+      </c>
     </row>
     <row r="606" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A606" s="40">
-        <v>45292</v>
-      </c>
-      <c r="B606" s="20"/>
+      <c r="A606" s="40"/>
+      <c r="B606" s="20" t="s">
+        <v>188</v>
+      </c>
       <c r="C606" s="13"/>
-      <c r="D606" s="39"/>
+      <c r="D606" s="39">
+        <v>1</v>
+      </c>
       <c r="E606" s="9"/>
       <c r="F606" s="20"/>
-      <c r="G606" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G606" s="13"/>
       <c r="H606" s="39"/>
       <c r="I606" s="9"/>
       <c r="J606" s="11"/>
-      <c r="K606" s="20"/>
+      <c r="K606" s="56">
+        <v>45289</v>
+      </c>
     </row>
     <row r="607" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A607" s="40">
-        <v>45323</v>
-      </c>
-      <c r="B607" s="20"/>
+      <c r="A607" s="40"/>
+      <c r="B607" s="20" t="s">
+        <v>413</v>
+      </c>
       <c r="C607" s="13"/>
-      <c r="D607" s="39"/>
+      <c r="D607" s="39">
+        <v>0.24399999999999999</v>
+      </c>
       <c r="E607" s="9"/>
       <c r="F607" s="20"/>
       <c r="G607" s="13" t="str">
@@ -17455,29 +17481,29 @@
       <c r="H607" s="39"/>
       <c r="I607" s="9"/>
       <c r="J607" s="11"/>
-      <c r="K607" s="20"/>
+      <c r="K607" s="56"/>
     </row>
     <row r="608" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A608" s="40">
-        <v>45352</v>
-      </c>
-      <c r="B608" s="20"/>
-      <c r="C608" s="13"/>
-      <c r="D608" s="39"/>
-      <c r="E608" s="9"/>
-      <c r="F608" s="20"/>
-      <c r="G608" s="13" t="str">
+      <c r="A608" s="57" t="s">
+        <v>412</v>
+      </c>
+      <c r="B608" s="15"/>
+      <c r="C608" s="42"/>
+      <c r="D608" s="43"/>
+      <c r="E608" s="51"/>
+      <c r="F608" s="15"/>
+      <c r="G608" s="42" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H608" s="39"/>
-      <c r="I608" s="9"/>
-      <c r="J608" s="11"/>
-      <c r="K608" s="20"/>
+      <c r="H608" s="43"/>
+      <c r="I608" s="51"/>
+      <c r="J608" s="12"/>
+      <c r="K608" s="15"/>
     </row>
     <row r="609" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A609" s="40">
-        <v>45383</v>
+        <v>45292</v>
       </c>
       <c r="B609" s="20"/>
       <c r="C609" s="13"/>
@@ -17495,7 +17521,7 @@
     </row>
     <row r="610" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A610" s="40">
-        <v>45413</v>
+        <v>45323</v>
       </c>
       <c r="B610" s="20"/>
       <c r="C610" s="13"/>
@@ -17513,7 +17539,7 @@
     </row>
     <row r="611" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A611" s="40">
-        <v>45444</v>
+        <v>45352</v>
       </c>
       <c r="B611" s="20"/>
       <c r="C611" s="13"/>
@@ -17531,7 +17557,7 @@
     </row>
     <row r="612" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A612" s="40">
-        <v>45474</v>
+        <v>45383</v>
       </c>
       <c r="B612" s="20"/>
       <c r="C612" s="13"/>
@@ -17549,7 +17575,7 @@
     </row>
     <row r="613" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A613" s="40">
-        <v>45505</v>
+        <v>45413</v>
       </c>
       <c r="B613" s="20"/>
       <c r="C613" s="13"/>
@@ -17567,7 +17593,7 @@
     </row>
     <row r="614" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A614" s="40">
-        <v>45536</v>
+        <v>45444</v>
       </c>
       <c r="B614" s="20"/>
       <c r="C614" s="13"/>
@@ -17585,7 +17611,7 @@
     </row>
     <row r="615" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A615" s="40">
-        <v>45566</v>
+        <v>45474</v>
       </c>
       <c r="B615" s="20"/>
       <c r="C615" s="13"/>
@@ -17603,7 +17629,7 @@
     </row>
     <row r="616" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A616" s="40">
-        <v>45597</v>
+        <v>45505</v>
       </c>
       <c r="B616" s="20"/>
       <c r="C616" s="13"/>
@@ -17621,7 +17647,7 @@
     </row>
     <row r="617" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A617" s="40">
-        <v>45627</v>
+        <v>45536</v>
       </c>
       <c r="B617" s="20"/>
       <c r="C617" s="13"/>
@@ -17639,7 +17665,7 @@
     </row>
     <row r="618" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A618" s="40">
-        <v>45658</v>
+        <v>45566</v>
       </c>
       <c r="B618" s="20"/>
       <c r="C618" s="13"/>
@@ -17657,7 +17683,7 @@
     </row>
     <row r="619" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A619" s="40">
-        <v>45689</v>
+        <v>45597</v>
       </c>
       <c r="B619" s="20"/>
       <c r="C619" s="13"/>
@@ -17675,21 +17701,75 @@
     </row>
     <row r="620" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A620" s="40">
+        <v>45627</v>
+      </c>
+      <c r="B620" s="20"/>
+      <c r="C620" s="13"/>
+      <c r="D620" s="39"/>
+      <c r="E620" s="9"/>
+      <c r="F620" s="20"/>
+      <c r="G620" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H620" s="39"/>
+      <c r="I620" s="9"/>
+      <c r="J620" s="11"/>
+      <c r="K620" s="20"/>
+    </row>
+    <row r="621" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A621" s="40">
+        <v>45658</v>
+      </c>
+      <c r="B621" s="20"/>
+      <c r="C621" s="13"/>
+      <c r="D621" s="39"/>
+      <c r="E621" s="9"/>
+      <c r="F621" s="20"/>
+      <c r="G621" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H621" s="39"/>
+      <c r="I621" s="9"/>
+      <c r="J621" s="11"/>
+      <c r="K621" s="20"/>
+    </row>
+    <row r="622" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A622" s="40">
+        <v>45689</v>
+      </c>
+      <c r="B622" s="20"/>
+      <c r="C622" s="13"/>
+      <c r="D622" s="39"/>
+      <c r="E622" s="9"/>
+      <c r="F622" s="20"/>
+      <c r="G622" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H622" s="39"/>
+      <c r="I622" s="9"/>
+      <c r="J622" s="11"/>
+      <c r="K622" s="20"/>
+    </row>
+    <row r="623" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A623" s="40">
         <v>45717</v>
       </c>
-      <c r="B620" s="15"/>
-      <c r="C620" s="42"/>
-      <c r="D620" s="43"/>
-      <c r="E620" s="51"/>
-      <c r="F620" s="15"/>
-      <c r="G620" s="42" t="str">
+      <c r="B623" s="15"/>
+      <c r="C623" s="42"/>
+      <c r="D623" s="43"/>
+      <c r="E623" s="51"/>
+      <c r="F623" s="15"/>
+      <c r="G623" s="42" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H620" s="43"/>
-      <c r="I620" s="51"/>
-      <c r="J620" s="12"/>
-      <c r="K620" s="15"/>
+      <c r="H623" s="43"/>
+      <c r="I623" s="51"/>
+      <c r="J623" s="12"/>
+      <c r="K623" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/REGULAR/CTO/DE OCAMPO, MARISSA.xlsx
+++ b/REGULAR/CTO/DE OCAMPO, MARISSA.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\CTO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\CTO\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BA318BA-4F2D-48AA-9CE0-503B1C212BE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -24,25 +25,17 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="424">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1319,7 +1312,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1557,7 +1550,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1697,9 +1690,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -2210,7 +2200,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2253,7 +2243,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2317,7 +2307,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2377,7 +2367,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2443,7 +2433,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2506,7 +2496,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2604,7 +2594,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2663,7 +2653,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2728,7 +2718,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2771,7 +2761,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2846,7 +2836,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3032,7 +3022,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3098,7 +3088,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3156,7 +3146,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3222,7 +3212,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3278,7 +3268,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3353,7 +3343,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3396,7 +3386,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3462,7 +3452,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3518,7 +3508,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3616,7 +3606,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3679,7 +3669,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3728,7 +3718,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -3745,25 +3735,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K623" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K623" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3775,13 +3765,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="DAYS"/>
-    <tableColumn id="2" name="HOURS"/>
-    <tableColumn id="3" name="MINUTES"/>
-    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3790,14 +3780,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4101,7 +4091,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -4111,7 +4101,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4119,95 +4109,95 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K623"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="2520" topLeftCell="A575" activePane="bottomLeft"/>
+      <pane ySplit="2520" topLeftCell="A602" activePane="bottomLeft"/>
       <selection activeCell="H3" sqref="H3"/>
-      <selection pane="bottomLeft" activeCell="F591" sqref="F591"/>
+      <selection pane="bottomLeft" activeCell="K610" sqref="K610"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="59"/>
+      <c r="C2" s="58"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="66" t="s">
+      <c r="F2" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="G2" s="66"/>
+      <c r="G2" s="65"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="61"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" s="59"/>
+      <c r="K2" s="60"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="67"/>
-      <c r="G3" s="64"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="63"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="63"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="61"/>
+      <c r="K3" s="62"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="59" t="s">
+      <c r="B4" s="58" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="59"/>
+      <c r="C4" s="58"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="64"/>
-      <c r="K4" s="65"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="63"/>
+      <c r="K4" s="64"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -4215,7 +4205,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -4228,24 +4218,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="58" t="s">
+      <c r="C7" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58" t="s">
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="58"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="58"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -4280,7 +4270,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -4289,7 +4279,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>86.752999999999787</v>
+        <v>88.002999999999787</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4299,12 +4289,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>125.50300000000001</v>
+        <v>126.75300000000001</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>45</v>
       </c>
@@ -4326,7 +4316,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>34514</v>
       </c>
@@ -4344,7 +4334,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>34516</v>
       </c>
@@ -4364,7 +4354,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <f>EDATE(A12,1)</f>
         <v>34547</v>
@@ -4385,7 +4375,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <f>EDATE(A13,1)</f>
         <v>34578</v>
@@ -4406,7 +4396,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <f t="shared" ref="A15:A17" si="0">EDATE(A14,1)</f>
         <v>34608</v>
@@ -4427,7 +4417,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40">
         <f t="shared" si="0"/>
         <v>34639</v>
@@ -4448,7 +4438,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40">
         <f t="shared" si="0"/>
         <v>34669</v>
@@ -4469,7 +4459,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="48" t="s">
         <v>46</v>
       </c>
@@ -4487,7 +4477,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
         <f>EDATE(A17,1)</f>
         <v>34700</v>
@@ -4510,11 +4500,11 @@
       <c r="H19" s="39"/>
       <c r="I19" s="9"/>
       <c r="J19" s="11"/>
-      <c r="K19" s="49" t="s">
+      <c r="K19" s="20" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
         <f>EDATE(A19,1)</f>
         <v>34731</v>
@@ -4543,7 +4533,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <f t="shared" ref="A21:A29" si="1">EDATE(A20,1)</f>
         <v>34759</v>
@@ -4564,7 +4554,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
         <f t="shared" si="1"/>
         <v>34790</v>
@@ -4587,11 +4577,11 @@
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="11"/>
-      <c r="K22" s="50">
+      <c r="K22" s="49">
         <v>45041</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40">
         <f t="shared" si="1"/>
         <v>34820</v>
@@ -4614,11 +4604,11 @@
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="11"/>
-      <c r="K23" s="50">
+      <c r="K23" s="49">
         <v>45052</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
         <f t="shared" si="1"/>
         <v>34851</v>
@@ -4639,7 +4629,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <f t="shared" si="1"/>
         <v>34881</v>
@@ -4660,7 +4650,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
         <f t="shared" si="1"/>
         <v>34912</v>
@@ -4683,11 +4673,11 @@
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="11"/>
-      <c r="K26" s="50">
+      <c r="K26" s="49">
         <v>45102</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
         <f t="shared" si="1"/>
         <v>34943</v>
@@ -4708,7 +4698,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40">
         <f t="shared" si="1"/>
         <v>34973</v>
@@ -4731,11 +4721,11 @@
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="11"/>
-      <c r="K28" s="50">
+      <c r="K28" s="49">
         <v>45229</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
         <f t="shared" si="1"/>
         <v>35004</v>
@@ -4756,7 +4746,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40">
         <f>EDATE(A29,1)</f>
         <v>35034</v>
@@ -4779,11 +4769,11 @@
       <c r="H30" s="39"/>
       <c r="I30" s="9"/>
       <c r="J30" s="11"/>
-      <c r="K30" s="50">
+      <c r="K30" s="49">
         <v>45279</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="48" t="s">
         <v>47</v>
       </c>
@@ -4801,7 +4791,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40">
         <f>EDATE(A30,1)</f>
         <v>35065</v>
@@ -4826,7 +4816,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
         <f>EDATE(A32,1)</f>
         <v>35096</v>
@@ -4849,11 +4839,11 @@
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="11"/>
-      <c r="K33" s="50">
+      <c r="K33" s="49">
         <v>44970</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40">
         <f t="shared" ref="A34:A44" si="2">EDATE(A33,1)</f>
         <v>35125</v>
@@ -4874,7 +4864,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40">
         <f t="shared" si="2"/>
         <v>35156</v>
@@ -4895,7 +4885,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40">
         <f t="shared" si="2"/>
         <v>35186</v>
@@ -4918,11 +4908,11 @@
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="11"/>
-      <c r="K36" s="50">
+      <c r="K36" s="49">
         <v>45070</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40">
         <f t="shared" si="2"/>
         <v>35217</v>
@@ -4943,7 +4933,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
         <f t="shared" si="2"/>
         <v>35247</v>
@@ -4970,7 +4960,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40">
         <f t="shared" si="2"/>
         <v>35278</v>
@@ -4991,7 +4981,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40">
         <f>EDATE(A39,1)</f>
         <v>35309</v>
@@ -5016,7 +5006,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40"/>
       <c r="B41" s="20" t="s">
         <v>55</v>
@@ -5035,7 +5025,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40">
         <f>EDATE(A40,1)</f>
         <v>35339</v>
@@ -5056,7 +5046,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40">
         <f t="shared" si="2"/>
         <v>35370</v>
@@ -5077,7 +5067,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40">
         <f t="shared" si="2"/>
         <v>35400</v>
@@ -5098,11 +5088,11 @@
       <c r="H44" s="39"/>
       <c r="I44" s="9"/>
       <c r="J44" s="11"/>
-      <c r="K44" s="50" t="s">
+      <c r="K44" s="49" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40"/>
       <c r="B45" s="20" t="s">
         <v>59</v>
@@ -5117,11 +5107,11 @@
       <c r="H45" s="39"/>
       <c r="I45" s="9"/>
       <c r="J45" s="11"/>
-      <c r="K45" s="50" t="s">
+      <c r="K45" s="49" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40"/>
       <c r="B46" s="20" t="s">
         <v>61</v>
@@ -5136,9 +5126,9 @@
       <c r="H46" s="39"/>
       <c r="I46" s="9"/>
       <c r="J46" s="11"/>
-      <c r="K46" s="50"/>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K46" s="49"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="48" t="s">
         <v>54</v>
       </c>
@@ -5153,7 +5143,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40">
         <f>EDATE(A44,1)</f>
         <v>35431</v>
@@ -5174,7 +5164,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40">
         <f>EDATE(A48,1)</f>
         <v>35462</v>
@@ -5195,7 +5185,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40">
         <f t="shared" ref="A50:A60" si="3">EDATE(A49,1)</f>
         <v>35490</v>
@@ -5216,7 +5206,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40">
         <f t="shared" si="3"/>
         <v>35521</v>
@@ -5237,7 +5227,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40">
         <f t="shared" si="3"/>
         <v>35551</v>
@@ -5258,7 +5248,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40">
         <f t="shared" si="3"/>
         <v>35582</v>
@@ -5279,7 +5269,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40">
         <f t="shared" si="3"/>
         <v>35612</v>
@@ -5306,7 +5296,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40"/>
       <c r="B55" s="20" t="s">
         <v>55</v>
@@ -5325,7 +5315,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40">
         <f>EDATE(A54,1)</f>
         <v>35643</v>
@@ -5352,7 +5342,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40">
         <f t="shared" si="3"/>
         <v>35674</v>
@@ -5373,7 +5363,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40">
         <f>EDATE(A57,1)</f>
         <v>35704</v>
@@ -5396,11 +5386,11 @@
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="11"/>
-      <c r="K58" s="50">
+      <c r="K58" s="49">
         <v>45219</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40">
         <f t="shared" si="3"/>
         <v>35735</v>
@@ -5421,7 +5411,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40">
         <f t="shared" si="3"/>
         <v>35765</v>
@@ -5446,7 +5436,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40"/>
       <c r="B61" s="20" t="s">
         <v>69</v>
@@ -5463,7 +5453,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="48" t="s">
         <v>62</v>
       </c>
@@ -5481,7 +5471,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40">
         <f>EDATE(A60,1)</f>
         <v>35796</v>
@@ -5508,7 +5498,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40"/>
       <c r="B64" s="20" t="s">
         <v>73</v>
@@ -5525,7 +5515,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40">
         <f>EDATE(A63,1)</f>
         <v>35827</v>
@@ -5552,7 +5542,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40"/>
       <c r="B66" s="20" t="s">
         <v>73</v>
@@ -5569,7 +5559,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40">
         <f>EDATE(A65,1)</f>
         <v>35855</v>
@@ -5596,7 +5586,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40">
         <f t="shared" ref="A68:A73" si="4">EDATE(A67,1)</f>
         <v>35886</v>
@@ -5617,7 +5607,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40">
         <f t="shared" si="4"/>
         <v>35916</v>
@@ -5638,7 +5628,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40">
         <f t="shared" si="4"/>
         <v>35947</v>
@@ -5661,11 +5651,11 @@
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="11"/>
-      <c r="K70" s="50">
+      <c r="K70" s="49">
         <v>45101</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40"/>
       <c r="B71" s="20" t="s">
         <v>53</v>
@@ -5680,11 +5670,11 @@
       <c r="H71" s="39"/>
       <c r="I71" s="9"/>
       <c r="J71" s="11"/>
-      <c r="K71" s="50">
+      <c r="K71" s="49">
         <v>45106</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40">
         <f>EDATE(A70,1)</f>
         <v>35977</v>
@@ -5709,7 +5699,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40">
         <f t="shared" si="4"/>
         <v>36008</v>
@@ -5736,7 +5726,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40"/>
       <c r="B74" s="20" t="s">
         <v>81</v>
@@ -5755,7 +5745,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40"/>
       <c r="B75" s="20" t="s">
         <v>53</v>
@@ -5770,11 +5760,11 @@
       <c r="H75" s="39"/>
       <c r="I75" s="9"/>
       <c r="J75" s="11"/>
-      <c r="K75" s="50">
+      <c r="K75" s="49">
         <v>45166</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40"/>
       <c r="B76" s="20" t="s">
         <v>82</v>
@@ -5791,7 +5781,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40">
         <f>EDATE(A73,1)</f>
         <v>36039</v>
@@ -5818,7 +5808,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40"/>
       <c r="B78" s="20" t="s">
         <v>87</v>
@@ -5833,11 +5823,11 @@
       <c r="H78" s="39"/>
       <c r="I78" s="9"/>
       <c r="J78" s="11"/>
-      <c r="K78" s="50" t="s">
+      <c r="K78" s="49" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40">
         <f>EDATE(A77,1)</f>
         <v>36069</v>
@@ -5864,7 +5854,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40"/>
       <c r="B80" s="20" t="s">
         <v>76</v>
@@ -5883,7 +5873,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40"/>
       <c r="B81" s="20" t="s">
         <v>88</v>
@@ -5900,7 +5890,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40">
         <f>EDATE(A79,1)</f>
         <v>36100</v>
@@ -5923,11 +5913,11 @@
       <c r="H82" s="39"/>
       <c r="I82" s="9"/>
       <c r="J82" s="11"/>
-      <c r="K82" s="50">
+      <c r="K82" s="49">
         <v>45243</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40"/>
       <c r="B83" s="20" t="s">
         <v>91</v>
@@ -5944,7 +5934,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40">
         <f>EDATE(A82,1)</f>
         <v>36130</v>
@@ -5969,7 +5959,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="48" t="s">
         <v>70</v>
       </c>
@@ -5987,7 +5977,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40">
         <f>EDATE(A84,1)</f>
         <v>36161</v>
@@ -6014,7 +6004,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40"/>
       <c r="B87" s="20" t="s">
         <v>94</v>
@@ -6033,7 +6023,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40">
         <f>EDATE(A86,1)</f>
         <v>36192</v>
@@ -6060,7 +6050,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40"/>
       <c r="B89" s="20" t="s">
         <v>63</v>
@@ -6079,7 +6069,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40"/>
       <c r="B90" s="20" t="s">
         <v>97</v>
@@ -6096,7 +6086,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40">
         <f>EDATE(A88,1)</f>
         <v>36220</v>
@@ -6123,7 +6113,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40"/>
       <c r="B92" s="20" t="s">
         <v>100</v>
@@ -6142,7 +6132,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40"/>
       <c r="B93" s="20" t="s">
         <v>101</v>
@@ -6159,7 +6149,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40">
         <f>EDATE(A91,1)</f>
         <v>36251</v>
@@ -6182,11 +6172,11 @@
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="11"/>
-      <c r="K94" s="50">
+      <c r="K94" s="49">
         <v>45022</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40"/>
       <c r="B95" s="20" t="s">
         <v>105</v>
@@ -6201,9 +6191,9 @@
       <c r="H95" s="39"/>
       <c r="I95" s="9"/>
       <c r="J95" s="11"/>
-      <c r="K95" s="50"/>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K95" s="49"/>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40">
         <f>EDATE(A94,1)</f>
         <v>36281</v>
@@ -6228,7 +6218,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40"/>
       <c r="B97" s="20" t="s">
         <v>52</v>
@@ -6243,11 +6233,11 @@
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="11"/>
-      <c r="K97" s="50">
+      <c r="K97" s="49">
         <v>45056</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40"/>
       <c r="B98" s="20" t="s">
         <v>53</v>
@@ -6262,11 +6252,11 @@
       <c r="H98" s="39"/>
       <c r="I98" s="9"/>
       <c r="J98" s="11"/>
-      <c r="K98" s="50">
+      <c r="K98" s="49">
         <v>45074</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40"/>
       <c r="B99" s="20" t="s">
         <v>55</v>
@@ -6285,7 +6275,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40"/>
       <c r="B100" s="20" t="s">
         <v>106</v>
@@ -6302,7 +6292,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40">
         <f>EDATE(A96,1)</f>
         <v>36312</v>
@@ -6329,7 +6319,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40"/>
       <c r="B102" s="20" t="s">
         <v>109</v>
@@ -6350,7 +6340,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40"/>
       <c r="B103" s="20" t="s">
         <v>109</v>
@@ -6369,7 +6359,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40"/>
       <c r="B104" s="20" t="s">
         <v>110</v>
@@ -6386,7 +6376,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40">
         <f>EDATE(A101,1)</f>
         <v>36342</v>
@@ -6413,7 +6403,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40"/>
       <c r="B106" s="20" t="s">
         <v>115</v>
@@ -6428,11 +6418,11 @@
       <c r="H106" s="39"/>
       <c r="I106" s="9"/>
       <c r="J106" s="11"/>
-      <c r="K106" s="50">
+      <c r="K106" s="49">
         <v>45130</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40"/>
       <c r="B107" s="20" t="s">
         <v>116</v>
@@ -6449,7 +6439,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40">
         <f>EDATE(A105,1)</f>
         <v>36373</v>
@@ -6472,11 +6462,11 @@
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="11"/>
-      <c r="K108" s="50">
+      <c r="K108" s="49">
         <v>45141</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40"/>
       <c r="B109" s="20" t="s">
         <v>117</v>
@@ -6497,7 +6487,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40"/>
       <c r="B110" s="20" t="s">
         <v>109</v>
@@ -6516,7 +6506,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40"/>
       <c r="B111" s="20" t="s">
         <v>119</v>
@@ -6533,7 +6523,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40">
         <f>EDATE(A108,1)</f>
         <v>36404</v>
@@ -6556,11 +6546,11 @@
       <c r="H112" s="39"/>
       <c r="I112" s="9"/>
       <c r="J112" s="11"/>
-      <c r="K112" s="50">
+      <c r="K112" s="49">
         <v>45189</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40"/>
       <c r="B113" s="20" t="s">
         <v>115</v>
@@ -6575,11 +6565,11 @@
       <c r="H113" s="39"/>
       <c r="I113" s="9"/>
       <c r="J113" s="11"/>
-      <c r="K113" s="50">
+      <c r="K113" s="49">
         <v>45196</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40"/>
       <c r="B114" s="20" t="s">
         <v>120</v>
@@ -6596,7 +6586,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40">
         <f>EDATE(A112,1)</f>
         <v>36434</v>
@@ -6625,7 +6615,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40"/>
       <c r="B116" s="20" t="s">
         <v>115</v>
@@ -6640,11 +6630,11 @@
       <c r="H116" s="39"/>
       <c r="I116" s="9"/>
       <c r="J116" s="11"/>
-      <c r="K116" s="50">
+      <c r="K116" s="49">
         <v>45218</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40"/>
       <c r="B117" s="20" t="s">
         <v>123</v>
@@ -6665,7 +6655,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40"/>
       <c r="B118" s="20" t="s">
         <v>124</v>
@@ -6682,7 +6672,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40">
         <f>EDATE(A115,1)</f>
         <v>36465</v>
@@ -6709,7 +6699,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40"/>
       <c r="B120" s="20" t="s">
         <v>109</v>
@@ -6730,7 +6720,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40"/>
       <c r="B121" s="20" t="s">
         <v>125</v>
@@ -6747,7 +6737,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40">
         <f t="shared" ref="A122" si="5">EDATE(A119,1)</f>
         <v>36495</v>
@@ -6772,7 +6762,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="48" t="s">
         <v>93</v>
       </c>
@@ -6790,7 +6780,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40">
         <f>EDATE(A122,1)</f>
         <v>36526</v>
@@ -6813,11 +6803,11 @@
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="11"/>
-      <c r="K124" s="50">
+      <c r="K124" s="49">
         <v>44943</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40"/>
       <c r="B125" s="20" t="s">
         <v>115</v>
@@ -6834,11 +6824,11 @@
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="11"/>
-      <c r="K125" s="50">
+      <c r="K125" s="49">
         <v>44932</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40"/>
       <c r="B126" s="20" t="s">
         <v>109</v>
@@ -6857,7 +6847,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40"/>
       <c r="B127" s="20" t="s">
         <v>87</v>
@@ -6874,7 +6864,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40">
         <f>EDATE(A124,1)</f>
         <v>36557</v>
@@ -6899,7 +6889,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40">
         <f t="shared" ref="A129:A140" si="6">EDATE(A128,1)</f>
         <v>36586</v>
@@ -6922,11 +6912,11 @@
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="11"/>
-      <c r="K129" s="50">
+      <c r="K129" s="49">
         <v>45005</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40"/>
       <c r="B130" s="20" t="s">
         <v>132</v>
@@ -6943,7 +6933,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="40"/>
       <c r="B131" s="20" t="s">
         <v>134</v>
@@ -6960,7 +6950,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40">
         <f>EDATE(A129,1)</f>
         <v>36617</v>
@@ -6985,7 +6975,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="40">
         <f t="shared" si="6"/>
         <v>36647</v>
@@ -7012,7 +7002,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="40"/>
       <c r="B134" s="20" t="s">
         <v>139</v>
@@ -7029,7 +7019,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="40">
         <f>EDATE(A133,1)</f>
         <v>36678</v>
@@ -7056,7 +7046,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="40"/>
       <c r="B136" s="20" t="s">
         <v>140</v>
@@ -7073,7 +7063,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="40">
         <f>EDATE(A135,1)</f>
         <v>36708</v>
@@ -7096,7 +7086,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="40"/>
       <c r="B138" s="20" t="s">
         <v>142</v>
@@ -7113,7 +7103,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="40">
         <f>EDATE(A137,1)</f>
         <v>36739</v>
@@ -7138,7 +7128,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="40">
         <f t="shared" si="6"/>
         <v>36770</v>
@@ -7159,7 +7149,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="40">
         <f>EDATE(A140,1)</f>
         <v>36800</v>
@@ -7186,7 +7176,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="40"/>
       <c r="B142" s="20" t="s">
         <v>144</v>
@@ -7203,7 +7193,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="40">
         <f>EDATE(A141,1)</f>
         <v>36831</v>
@@ -7232,7 +7222,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="40"/>
       <c r="B144" s="20" t="s">
         <v>145</v>
@@ -7249,7 +7239,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="40">
         <f>EDATE(A143,1)</f>
         <v>36861</v>
@@ -7272,11 +7262,11 @@
       </c>
       <c r="I145" s="9"/>
       <c r="J145" s="11"/>
-      <c r="K145" s="50">
+      <c r="K145" s="49">
         <v>45286</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="40"/>
       <c r="B146" s="20" t="s">
         <v>148</v>
@@ -7293,7 +7283,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="40"/>
       <c r="B147" s="20" t="s">
         <v>149</v>
@@ -7310,7 +7300,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="48" t="s">
         <v>129</v>
       </c>
@@ -7328,7 +7318,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="40">
         <f>EDATE(A145,1)</f>
         <v>36892</v>
@@ -7351,11 +7341,11 @@
       </c>
       <c r="I149" s="9"/>
       <c r="J149" s="11"/>
-      <c r="K149" s="50">
+      <c r="K149" s="49">
         <v>44965</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="40"/>
       <c r="B150" s="20" t="s">
         <v>151</v>
@@ -7370,7 +7360,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="40"/>
       <c r="B151" s="20" t="s">
         <v>133</v>
@@ -7387,7 +7377,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="40">
         <f>EDATE(A149,1)</f>
         <v>36923</v>
@@ -7416,7 +7406,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="40"/>
       <c r="B153" s="20" t="s">
         <v>131</v>
@@ -7433,7 +7423,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="40">
         <f>EDATE(A152,1)</f>
         <v>36951</v>
@@ -7458,7 +7448,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="40">
         <f t="shared" ref="A155:A164" si="7">EDATE(A154,1)</f>
         <v>36982</v>
@@ -7483,7 +7473,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="40">
         <f t="shared" si="7"/>
         <v>37012</v>
@@ -7508,7 +7498,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="40">
         <f t="shared" si="7"/>
         <v>37043</v>
@@ -7533,7 +7523,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="40">
         <f t="shared" si="7"/>
         <v>37073</v>
@@ -7558,7 +7548,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="40">
         <f t="shared" si="7"/>
         <v>37104</v>
@@ -7579,7 +7569,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="40">
         <f t="shared" si="7"/>
         <v>37135</v>
@@ -7606,7 +7596,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="40">
         <f t="shared" si="7"/>
         <v>37165</v>
@@ -7629,11 +7619,11 @@
       </c>
       <c r="I161" s="9"/>
       <c r="J161" s="11"/>
-      <c r="K161" s="50">
+      <c r="K161" s="49">
         <v>45217</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="40"/>
       <c r="B162" s="20" t="s">
         <v>158</v>
@@ -7650,7 +7640,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="40">
         <f>EDATE(A161,1)</f>
         <v>37196</v>
@@ -7671,7 +7661,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="40">
         <f t="shared" si="7"/>
         <v>37226</v>
@@ -7696,7 +7686,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="40"/>
       <c r="B165" s="20" t="s">
         <v>160</v>
@@ -7713,7 +7703,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="48" t="s">
         <v>150</v>
       </c>
@@ -7731,7 +7721,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="40">
         <f>EDATE(A164,1)</f>
         <v>37257</v>
@@ -7754,11 +7744,11 @@
       </c>
       <c r="I167" s="9"/>
       <c r="J167" s="11"/>
-      <c r="K167" s="50">
+      <c r="K167" s="49">
         <v>44947</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="40"/>
       <c r="B168" s="20" t="s">
         <v>100</v>
@@ -7773,11 +7763,11 @@
       </c>
       <c r="I168" s="9"/>
       <c r="J168" s="11"/>
-      <c r="K168" s="50" t="s">
+      <c r="K168" s="49" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="40"/>
       <c r="B169" s="20" t="s">
         <v>162</v>
@@ -7794,7 +7784,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="40">
         <f>EDATE(A167,1)</f>
         <v>37288</v>
@@ -7819,7 +7809,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="40">
         <f t="shared" ref="A171:A184" si="8">EDATE(A170,1)</f>
         <v>37316</v>
@@ -7844,7 +7834,7 @@
       <c r="J171" s="11"/>
       <c r="K171" s="20"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="40">
         <f t="shared" si="8"/>
         <v>37347</v>
@@ -7871,7 +7861,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="40"/>
       <c r="B173" s="20" t="s">
         <v>166</v>
@@ -7888,7 +7878,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="40">
         <f>EDATE(A172,1)</f>
         <v>37377</v>
@@ -7915,7 +7905,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="40"/>
       <c r="B175" s="20" t="s">
         <v>168</v>
@@ -7932,7 +7922,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="40">
         <f>EDATE(A174,1)</f>
         <v>37408</v>
@@ -7959,7 +7949,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="40"/>
       <c r="B177" s="20" t="s">
         <v>172</v>
@@ -7976,7 +7966,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="40"/>
       <c r="B178" s="20" t="s">
         <v>170</v>
@@ -7993,7 +7983,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="40">
         <f>EDATE(A176,1)</f>
         <v>37438</v>
@@ -8014,7 +8004,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="40">
         <f>EDATE(A179,1)</f>
         <v>37469</v>
@@ -8035,7 +8025,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="40">
         <f t="shared" si="8"/>
         <v>37500</v>
@@ -8062,7 +8052,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="40">
         <f t="shared" si="8"/>
         <v>37530</v>
@@ -8085,11 +8075,11 @@
       </c>
       <c r="I182" s="9"/>
       <c r="J182" s="11"/>
-      <c r="K182" s="50">
+      <c r="K182" s="49">
         <v>45221</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" s="40">
         <f t="shared" si="8"/>
         <v>37561</v>
@@ -8116,7 +8106,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="40">
         <f t="shared" si="8"/>
         <v>37591</v>
@@ -8139,11 +8129,11 @@
       </c>
       <c r="I184" s="9"/>
       <c r="J184" s="11"/>
-      <c r="K184" s="50">
+      <c r="K184" s="49">
         <v>45265</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" s="40"/>
       <c r="B185" s="20" t="s">
         <v>160</v>
@@ -8160,7 +8150,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="48" t="s">
         <v>161</v>
       </c>
@@ -8178,7 +8168,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" s="40">
         <f>EDATE(A184,1)</f>
         <v>37622</v>
@@ -8205,7 +8195,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" s="40">
         <f>EDATE(A187,1)</f>
         <v>37653</v>
@@ -8232,7 +8222,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="40">
         <f t="shared" ref="A189:A199" si="9">EDATE(A188,1)</f>
         <v>37681</v>
@@ -8253,7 +8243,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" s="40">
         <f t="shared" si="9"/>
         <v>37712</v>
@@ -8276,11 +8266,11 @@
       </c>
       <c r="I190" s="9"/>
       <c r="J190" s="11"/>
-      <c r="K190" s="50">
+      <c r="K190" s="49">
         <v>45030</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" s="40"/>
       <c r="B191" s="20" t="s">
         <v>52</v>
@@ -8295,11 +8285,11 @@
       </c>
       <c r="I191" s="9"/>
       <c r="J191" s="11"/>
-      <c r="K191" s="50">
+      <c r="K191" s="49">
         <v>45037</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" s="40">
         <f>EDATE(A190,1)</f>
         <v>37742</v>
@@ -8320,7 +8310,7 @@
       <c r="J192" s="11"/>
       <c r="K192" s="20"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" s="40">
         <f t="shared" si="9"/>
         <v>37773</v>
@@ -8341,7 +8331,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="40">
         <f t="shared" si="9"/>
         <v>37803</v>
@@ -8362,7 +8352,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" s="40">
         <f t="shared" si="9"/>
         <v>37834</v>
@@ -8383,7 +8373,7 @@
       <c r="J195" s="12"/>
       <c r="K195" s="15"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" s="40">
         <f t="shared" si="9"/>
         <v>37865</v>
@@ -8404,7 +8394,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" s="40">
         <f t="shared" si="9"/>
         <v>37895</v>
@@ -8425,7 +8415,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="40">
         <f t="shared" si="9"/>
         <v>37926</v>
@@ -8446,7 +8436,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" s="40">
         <f t="shared" si="9"/>
         <v>37956</v>
@@ -8471,7 +8461,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" s="48" t="s">
         <v>175</v>
       </c>
@@ -8489,7 +8479,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" s="40">
         <f>EDATE(A199,1)</f>
         <v>37987</v>
@@ -8514,7 +8504,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" s="40">
         <f>EDATE(A201,1)</f>
         <v>38018</v>
@@ -8535,7 +8525,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" s="40">
         <f t="shared" ref="A203:A212" si="10">EDATE(A202,1)</f>
         <v>38047</v>
@@ -8556,7 +8546,7 @@
       <c r="J203" s="11"/>
       <c r="K203" s="20"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" s="40">
         <f t="shared" si="10"/>
         <v>38078</v>
@@ -8577,7 +8567,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="20"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" s="40">
         <f t="shared" si="10"/>
         <v>38108</v>
@@ -8598,7 +8588,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" s="40">
         <f t="shared" si="10"/>
         <v>38139</v>
@@ -8619,7 +8609,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" s="40">
         <f t="shared" si="10"/>
         <v>38169</v>
@@ -8644,7 +8634,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" s="40">
         <f t="shared" si="10"/>
         <v>38200</v>
@@ -8671,7 +8661,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" s="40"/>
       <c r="B209" s="20" t="s">
         <v>55</v>
@@ -8690,7 +8680,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" s="40"/>
       <c r="B210" s="20" t="s">
         <v>73</v>
@@ -8707,7 +8697,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" s="40">
         <f>EDATE(A208,1)</f>
         <v>38231</v>
@@ -8734,7 +8724,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" s="40">
         <f t="shared" si="10"/>
         <v>38261</v>
@@ -8757,11 +8747,11 @@
       </c>
       <c r="I212" s="9"/>
       <c r="J212" s="11"/>
-      <c r="K212" s="50">
+      <c r="K212" s="49">
         <v>45214</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" s="40"/>
       <c r="B213" s="20" t="s">
         <v>52</v>
@@ -8776,11 +8766,11 @@
       </c>
       <c r="I213" s="9"/>
       <c r="J213" s="11"/>
-      <c r="K213" s="50">
+      <c r="K213" s="49">
         <v>45220</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" s="40">
         <f>EDATE(A212,1)</f>
         <v>38292</v>
@@ -8807,7 +8797,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215" s="40"/>
       <c r="B215" s="20" t="s">
         <v>134</v>
@@ -8824,7 +8814,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A216" s="40"/>
       <c r="B216" s="20" t="s">
         <v>63</v>
@@ -8843,7 +8833,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A217" s="40">
         <f>EDATE(A214,1)</f>
         <v>38322</v>
@@ -8868,7 +8858,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218" s="48" t="s">
         <v>178</v>
       </c>
@@ -8886,7 +8876,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A219" s="40">
         <f>EDATE(A217,1)</f>
         <v>38353</v>
@@ -8907,7 +8897,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220" s="40">
         <f>EDATE(A219,1)</f>
         <v>38384</v>
@@ -8930,11 +8920,11 @@
       <c r="H220" s="39"/>
       <c r="I220" s="9"/>
       <c r="J220" s="11"/>
-      <c r="K220" s="50">
+      <c r="K220" s="49">
         <v>44968</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" s="40"/>
       <c r="B221" s="20" t="s">
         <v>100</v>
@@ -8953,7 +8943,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" s="40">
         <f>EDATE(A220,1)</f>
         <v>38412</v>
@@ -8974,7 +8964,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A223" s="40">
         <f t="shared" ref="A223:A230" si="11">EDATE(A222,1)</f>
         <v>38443</v>
@@ -8995,7 +8985,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A224" s="40">
         <f t="shared" si="11"/>
         <v>38473</v>
@@ -9016,7 +9006,7 @@
       <c r="J224" s="11"/>
       <c r="K224" s="20"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A225" s="40">
         <f t="shared" si="11"/>
         <v>38504</v>
@@ -9037,7 +9027,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A226" s="40">
         <f t="shared" si="11"/>
         <v>38534</v>
@@ -9062,7 +9052,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A227" s="40">
         <f t="shared" si="11"/>
         <v>38565</v>
@@ -9089,7 +9079,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A228" s="40">
         <f t="shared" si="11"/>
         <v>38596</v>
@@ -9110,7 +9100,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A229" s="40">
         <f t="shared" si="11"/>
         <v>38626</v>
@@ -9131,7 +9121,7 @@
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A230" s="40">
         <f t="shared" si="11"/>
         <v>38657</v>
@@ -9152,7 +9142,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A231" s="40">
         <f>EDATE(A230,1)</f>
         <v>38687</v>
@@ -9177,7 +9167,7 @@
       <c r="J231" s="11"/>
       <c r="K231" s="20"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A232" s="48" t="s">
         <v>187</v>
       </c>
@@ -9195,7 +9185,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233" s="40">
         <f>EDATE(A231,1)</f>
         <v>38718</v>
@@ -9216,7 +9206,7 @@
       <c r="J233" s="11"/>
       <c r="K233" s="20"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A234" s="40">
         <f>EDATE(A233,1)</f>
         <v>38749</v>
@@ -9237,7 +9227,7 @@
       <c r="J234" s="11"/>
       <c r="K234" s="20"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A235" s="40">
         <f t="shared" ref="A235:A245" si="12">EDATE(A234,1)</f>
         <v>38777</v>
@@ -9258,7 +9248,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A236" s="40">
         <f t="shared" si="12"/>
         <v>38808</v>
@@ -9279,7 +9269,7 @@
       <c r="J236" s="11"/>
       <c r="K236" s="20"/>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A237" s="40">
         <f t="shared" si="12"/>
         <v>38838</v>
@@ -9300,7 +9290,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A238" s="40">
         <f t="shared" si="12"/>
         <v>38869</v>
@@ -9321,7 +9311,7 @@
       <c r="J238" s="11"/>
       <c r="K238" s="20"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A239" s="40">
         <f t="shared" si="12"/>
         <v>38899</v>
@@ -9342,7 +9332,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A240" s="40">
         <f t="shared" si="12"/>
         <v>38930</v>
@@ -9367,7 +9357,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A241" s="40"/>
       <c r="B241" s="20" t="s">
         <v>63</v>
@@ -9386,7 +9376,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A242" s="40">
         <f>EDATE(A240,1)</f>
         <v>38961</v>
@@ -9407,7 +9397,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A243" s="40">
         <f t="shared" si="12"/>
         <v>38991</v>
@@ -9428,7 +9418,7 @@
       <c r="J243" s="11"/>
       <c r="K243" s="20"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A244" s="40">
         <f>EDATE(A243,1)</f>
         <v>39022</v>
@@ -9449,7 +9439,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A245" s="40">
         <f t="shared" si="12"/>
         <v>39052</v>
@@ -9474,7 +9464,7 @@
       <c r="J245" s="11"/>
       <c r="K245" s="20"/>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A246" s="48" t="s">
         <v>193</v>
       </c>
@@ -9492,7 +9482,7 @@
       <c r="J246" s="11"/>
       <c r="K246" s="20"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A247" s="40">
         <f>EDATE(A245,1)</f>
         <v>39083</v>
@@ -9513,7 +9503,7 @@
       <c r="J247" s="11"/>
       <c r="K247" s="20"/>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A248" s="40">
         <f>EDATE(A247,1)</f>
         <v>39114</v>
@@ -9538,7 +9528,7 @@
       <c r="J248" s="11"/>
       <c r="K248" s="20"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A249" s="40">
         <f t="shared" ref="A249:A260" si="13">EDATE(A248,1)</f>
         <v>39142</v>
@@ -9559,7 +9549,7 @@
       <c r="J249" s="11"/>
       <c r="K249" s="20"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A250" s="40">
         <f t="shared" si="13"/>
         <v>39173</v>
@@ -9586,7 +9576,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A251" s="40"/>
       <c r="B251" s="20" t="s">
         <v>160</v>
@@ -9605,7 +9595,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A252" s="40">
         <f>EDATE(A250,1)</f>
         <v>39203</v>
@@ -9630,7 +9620,7 @@
       <c r="J252" s="11"/>
       <c r="K252" s="20"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A253" s="40">
         <f t="shared" si="13"/>
         <v>39234</v>
@@ -9655,7 +9645,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A254" s="40">
         <f t="shared" si="13"/>
         <v>39264</v>
@@ -9682,7 +9672,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A255" s="40"/>
       <c r="B255" s="20" t="s">
         <v>52</v>
@@ -9697,11 +9687,11 @@
       </c>
       <c r="I255" s="9"/>
       <c r="J255" s="11"/>
-      <c r="K255" s="50">
+      <c r="K255" s="49">
         <v>45125</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A256" s="40"/>
       <c r="B256" s="20" t="s">
         <v>201</v>
@@ -9718,7 +9708,7 @@
       <c r="J256" s="11"/>
       <c r="K256" s="20"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A257" s="40">
         <f>EDATE(A254,1)</f>
         <v>39295</v>
@@ -9743,7 +9733,7 @@
       <c r="J257" s="11"/>
       <c r="K257" s="20"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A258" s="40">
         <f t="shared" si="13"/>
         <v>39326</v>
@@ -9768,7 +9758,7 @@
       <c r="J258" s="11"/>
       <c r="K258" s="20"/>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A259" s="40">
         <f t="shared" si="13"/>
         <v>39356</v>
@@ -9793,7 +9783,7 @@
       <c r="J259" s="11"/>
       <c r="K259" s="20"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A260" s="40">
         <f t="shared" si="13"/>
         <v>39387</v>
@@ -9814,7 +9804,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A261" s="40">
         <f>EDATE(A260,1)</f>
         <v>39417</v>
@@ -9839,7 +9829,7 @@
       <c r="J261" s="11"/>
       <c r="K261" s="20"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A262" s="48" t="s">
         <v>205</v>
       </c>
@@ -9857,7 +9847,7 @@
       <c r="J262" s="11"/>
       <c r="K262" s="20"/>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A263" s="40">
         <f>EDATE(A261,1)</f>
         <v>39448</v>
@@ -9882,7 +9872,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A264" s="40">
         <f>EDATE(A263,1)</f>
         <v>39479</v>
@@ -9909,7 +9899,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A265" s="40"/>
       <c r="B265" s="20" t="s">
         <v>134</v>
@@ -9926,7 +9916,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A266" s="40"/>
       <c r="B266" s="20" t="s">
         <v>100</v>
@@ -9945,7 +9935,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A267" s="40"/>
       <c r="B267" s="20" t="s">
         <v>52</v>
@@ -9960,11 +9950,11 @@
       </c>
       <c r="I267" s="9"/>
       <c r="J267" s="11"/>
-      <c r="K267" s="50">
+      <c r="K267" s="49">
         <v>45020</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A268" s="40"/>
       <c r="B268" s="20" t="s">
         <v>207</v>
@@ -9981,7 +9971,7 @@
       <c r="J268" s="11"/>
       <c r="K268" s="20"/>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A269" s="40">
         <f>EDATE(A264,1)</f>
         <v>39508</v>
@@ -10006,7 +9996,7 @@
       <c r="J269" s="11"/>
       <c r="K269" s="20"/>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A270" s="40">
         <f t="shared" ref="A270:A284" si="14">EDATE(A269,1)</f>
         <v>39539</v>
@@ -10029,11 +10019,11 @@
       </c>
       <c r="I270" s="9"/>
       <c r="J270" s="11"/>
-      <c r="K270" s="50">
+      <c r="K270" s="49">
         <v>45033</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A271" s="40"/>
       <c r="B271" s="20" t="s">
         <v>52</v>
@@ -10048,11 +10038,11 @@
       </c>
       <c r="I271" s="9"/>
       <c r="J271" s="11"/>
-      <c r="K271" s="50">
+      <c r="K271" s="49">
         <v>45037</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A272" s="40"/>
       <c r="B272" s="20" t="s">
         <v>212</v>
@@ -10069,7 +10059,7 @@
       <c r="J272" s="11"/>
       <c r="K272" s="20"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A273" s="40">
         <f>EDATE(A270,1)</f>
         <v>39569</v>
@@ -10096,7 +10086,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A274" s="40"/>
       <c r="B274" s="20" t="s">
         <v>100</v>
@@ -10115,7 +10105,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A275" s="40"/>
       <c r="B275" s="20" t="s">
         <v>200</v>
@@ -10134,7 +10124,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A276" s="40"/>
       <c r="B276" s="20" t="s">
         <v>100</v>
@@ -10153,7 +10143,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A277" s="40"/>
       <c r="B277" s="20" t="s">
         <v>213</v>
@@ -10170,7 +10160,7 @@
       <c r="J277" s="11"/>
       <c r="K277" s="20"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A278" s="40">
         <f>EDATE(A273,1)</f>
         <v>39600</v>
@@ -10197,7 +10187,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A279" s="40"/>
       <c r="B279" s="20" t="s">
         <v>52</v>
@@ -10212,11 +10202,11 @@
       </c>
       <c r="I279" s="9"/>
       <c r="J279" s="11"/>
-      <c r="K279" s="50">
+      <c r="K279" s="49">
         <v>45089</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A280" s="40"/>
       <c r="B280" s="20" t="s">
         <v>219</v>
@@ -10233,7 +10223,7 @@
       <c r="J280" s="11"/>
       <c r="K280" s="20"/>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A281" s="40">
         <f>EDATE(A278,1)</f>
         <v>39630</v>
@@ -10260,7 +10250,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A282" s="40"/>
       <c r="B282" s="20" t="s">
         <v>221</v>
@@ -10277,7 +10267,7 @@
       <c r="J282" s="11"/>
       <c r="K282" s="20"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A283" s="40">
         <f>EDATE(A281,1)</f>
         <v>39661</v>
@@ -10302,7 +10292,7 @@
       <c r="J283" s="11"/>
       <c r="K283" s="20"/>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A284" s="40">
         <f t="shared" si="14"/>
         <v>39692</v>
@@ -10325,11 +10315,11 @@
       </c>
       <c r="I284" s="9"/>
       <c r="J284" s="11"/>
-      <c r="K284" s="50">
+      <c r="K284" s="49">
         <v>45177</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A285" s="40"/>
       <c r="B285" s="20" t="s">
         <v>52</v>
@@ -10344,11 +10334,11 @@
       </c>
       <c r="I285" s="9"/>
       <c r="J285" s="11"/>
-      <c r="K285" s="50">
+      <c r="K285" s="49">
         <v>45185</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A286" s="40"/>
       <c r="B286" s="20" t="s">
         <v>224</v>
@@ -10365,7 +10355,7 @@
       <c r="J286" s="11"/>
       <c r="K286" s="20"/>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A287" s="40">
         <f>EDATE(A284,1)</f>
         <v>39722</v>
@@ -10388,11 +10378,11 @@
       </c>
       <c r="I287" s="9"/>
       <c r="J287" s="11"/>
-      <c r="K287" s="50">
+      <c r="K287" s="49">
         <v>45229</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A288" s="40"/>
       <c r="B288" s="20" t="s">
         <v>225</v>
@@ -10409,7 +10399,7 @@
       <c r="J288" s="11"/>
       <c r="K288" s="20"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A289" s="40">
         <f>EDATE(A287,1)</f>
         <v>39753</v>
@@ -10436,7 +10426,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A290" s="40"/>
       <c r="B290" s="20" t="s">
         <v>133</v>
@@ -10453,7 +10443,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A291" s="40"/>
       <c r="B291" s="20" t="s">
         <v>226</v>
@@ -10470,7 +10460,7 @@
       <c r="J291" s="11"/>
       <c r="K291" s="20"/>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A292" s="40">
         <f>EDATE(A289,1)</f>
         <v>39783</v>
@@ -10493,11 +10483,11 @@
       <c r="H292" s="39"/>
       <c r="I292" s="9"/>
       <c r="J292" s="11"/>
-      <c r="K292" s="50">
+      <c r="K292" s="49">
         <v>45276</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A293" s="40"/>
       <c r="B293" s="20" t="s">
         <v>229</v>
@@ -10517,7 +10507,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A294" s="48" t="s">
         <v>230</v>
       </c>
@@ -10535,7 +10525,7 @@
       <c r="J294" s="11"/>
       <c r="K294" s="20"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A295" s="40">
         <f>EDATE(A292,1)</f>
         <v>39814</v>
@@ -10558,11 +10548,11 @@
       </c>
       <c r="I295" s="9"/>
       <c r="J295" s="11"/>
-      <c r="K295" s="50">
+      <c r="K295" s="49">
         <v>44933</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A296" s="40"/>
       <c r="B296" s="20" t="s">
         <v>232</v>
@@ -10579,7 +10569,7 @@
       <c r="J296" s="11"/>
       <c r="K296" s="20"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A297" s="40">
         <f>EDATE(A295,1)</f>
         <v>39845</v>
@@ -10606,7 +10596,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A298" s="40"/>
       <c r="B298" s="20" t="s">
         <v>233</v>
@@ -10623,7 +10613,7 @@
       <c r="J298" s="11"/>
       <c r="K298" s="20"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A299" s="40">
         <f>EDATE(A297,1)</f>
         <v>39873</v>
@@ -10648,7 +10638,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A300" s="40"/>
       <c r="B300" s="20" t="s">
         <v>134</v>
@@ -10665,7 +10655,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A301" s="40"/>
       <c r="B301" s="20" t="s">
         <v>237</v>
@@ -10682,7 +10672,7 @@
       <c r="J301" s="11"/>
       <c r="K301" s="20"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A302" s="40">
         <f>EDATE(A299,1)</f>
         <v>39904</v>
@@ -10709,7 +10699,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A303" s="40"/>
       <c r="B303" s="20" t="s">
         <v>55</v>
@@ -10726,7 +10716,7 @@
       <c r="J303" s="11"/>
       <c r="K303" s="20"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A304" s="40"/>
       <c r="B304" s="20" t="s">
         <v>238</v>
@@ -10743,7 +10733,7 @@
       <c r="J304" s="11"/>
       <c r="K304" s="20"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A305" s="40">
         <f>EDATE(A302,1)</f>
         <v>39934</v>
@@ -10768,7 +10758,7 @@
       <c r="J305" s="11"/>
       <c r="K305" s="20"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A306" s="40">
         <f t="shared" ref="A306:A314" si="15">EDATE(A305,1)</f>
         <v>39965</v>
@@ -10791,30 +10781,30 @@
       </c>
       <c r="I306" s="9"/>
       <c r="J306" s="11"/>
-      <c r="K306" s="50">
+      <c r="K306" s="49">
         <v>45078</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A307" s="40"/>
       <c r="B307" s="15" t="s">
         <v>55</v>
       </c>
       <c r="C307" s="13"/>
       <c r="D307" s="43"/>
-      <c r="E307" s="51"/>
+      <c r="E307" s="50"/>
       <c r="F307" s="15"/>
       <c r="G307" s="42"/>
       <c r="H307" s="43">
         <v>2</v>
       </c>
-      <c r="I307" s="51"/>
+      <c r="I307" s="50"/>
       <c r="J307" s="12"/>
       <c r="K307" s="15" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A308" s="40"/>
       <c r="B308" s="15" t="s">
         <v>241</v>
@@ -10823,15 +10813,15 @@
       <c r="D308" s="43">
         <v>3.0920000000000001</v>
       </c>
-      <c r="E308" s="51"/>
+      <c r="E308" s="50"/>
       <c r="F308" s="15"/>
       <c r="G308" s="42"/>
       <c r="H308" s="43"/>
-      <c r="I308" s="51"/>
+      <c r="I308" s="50"/>
       <c r="J308" s="12"/>
       <c r="K308" s="15"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A309" s="40">
         <f>EDATE(A306,1)</f>
         <v>39995</v>
@@ -10845,18 +10835,18 @@
       <c r="D309" s="43">
         <v>3.0539999999999998</v>
       </c>
-      <c r="E309" s="51"/>
+      <c r="E309" s="50"/>
       <c r="F309" s="15"/>
       <c r="G309" s="42">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H309" s="43"/>
-      <c r="I309" s="51"/>
+      <c r="I309" s="50"/>
       <c r="J309" s="12"/>
       <c r="K309" s="15"/>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A310" s="40">
         <f t="shared" si="15"/>
         <v>40026</v>
@@ -10881,7 +10871,7 @@
       <c r="J310" s="11"/>
       <c r="K310" s="20"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A311" s="40">
         <f t="shared" si="15"/>
         <v>40057</v>
@@ -10904,11 +10894,11 @@
       </c>
       <c r="I311" s="9"/>
       <c r="J311" s="11"/>
-      <c r="K311" s="50">
+      <c r="K311" s="49">
         <v>45193</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A312" s="40"/>
       <c r="B312" s="20" t="s">
         <v>136</v>
@@ -10925,7 +10915,7 @@
       <c r="J312" s="11"/>
       <c r="K312" s="20"/>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A313" s="40">
         <f>EDATE(A311,1)</f>
         <v>40087</v>
@@ -10950,7 +10940,7 @@
       <c r="J313" s="11"/>
       <c r="K313" s="20"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A314" s="40">
         <f t="shared" si="15"/>
         <v>40118</v>
@@ -10977,7 +10967,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A315" s="40"/>
       <c r="B315" s="20" t="s">
         <v>52</v>
@@ -10992,11 +10982,11 @@
       </c>
       <c r="I315" s="9"/>
       <c r="J315" s="11"/>
-      <c r="K315" s="50">
+      <c r="K315" s="49">
         <v>45248</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A316" s="40"/>
       <c r="B316" s="20" t="s">
         <v>248</v>
@@ -11013,7 +11003,7 @@
       <c r="J316" s="11"/>
       <c r="K316" s="20"/>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A317" s="40">
         <f>EDATE(A314,1)</f>
         <v>40148</v>
@@ -11038,7 +11028,7 @@
       <c r="J317" s="11"/>
       <c r="K317" s="20"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A318" s="40"/>
       <c r="B318" s="20" t="s">
         <v>250</v>
@@ -11055,7 +11045,7 @@
       <c r="J318" s="11"/>
       <c r="K318" s="20"/>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A319" s="48" t="s">
         <v>231</v>
       </c>
@@ -11073,7 +11063,7 @@
       <c r="J319" s="11"/>
       <c r="K319" s="20"/>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A320" s="40">
         <f>EDATE(A317,1)</f>
         <v>40179</v>
@@ -11098,7 +11088,7 @@
       <c r="J320" s="11"/>
       <c r="K320" s="20"/>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A321" s="40">
         <f>EDATE(A320,1)</f>
         <v>40210</v>
@@ -11125,7 +11115,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A322" s="40"/>
       <c r="B322" s="20" t="s">
         <v>253</v>
@@ -11142,7 +11132,7 @@
       <c r="J322" s="11"/>
       <c r="K322" s="20"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A323" s="40">
         <f>EDATE(A321,1)</f>
         <v>40238</v>
@@ -11165,11 +11155,11 @@
       </c>
       <c r="I323" s="9"/>
       <c r="J323" s="11"/>
-      <c r="K323" s="50">
+      <c r="K323" s="49">
         <v>45010</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A324" s="40"/>
       <c r="B324" s="20" t="s">
         <v>254</v>
@@ -11186,7 +11176,7 @@
       <c r="J324" s="11"/>
       <c r="K324" s="20"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A325" s="40">
         <f>EDATE(A323,1)</f>
         <v>40269</v>
@@ -11209,11 +11199,11 @@
       </c>
       <c r="I325" s="9"/>
       <c r="J325" s="11"/>
-      <c r="K325" s="50">
+      <c r="K325" s="49">
         <v>45021</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A326" s="40"/>
       <c r="B326" s="20" t="s">
         <v>52</v>
@@ -11228,11 +11218,11 @@
       </c>
       <c r="I326" s="9"/>
       <c r="J326" s="11"/>
-      <c r="K326" s="50">
+      <c r="K326" s="49">
         <v>45029</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A327" s="40"/>
       <c r="B327" s="20" t="s">
         <v>52</v>
@@ -11247,11 +11237,11 @@
       </c>
       <c r="I327" s="9"/>
       <c r="J327" s="11"/>
-      <c r="K327" s="50">
+      <c r="K327" s="49">
         <v>45044</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A328" s="40"/>
       <c r="B328" s="20" t="s">
         <v>255</v>
@@ -11268,7 +11258,7 @@
       <c r="J328" s="11"/>
       <c r="K328" s="20"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A329" s="40">
         <f>EDATE(A325,1)</f>
         <v>40299</v>
@@ -11291,11 +11281,11 @@
       </c>
       <c r="I329" s="9"/>
       <c r="J329" s="11"/>
-      <c r="K329" s="50">
+      <c r="K329" s="49">
         <v>45053</v>
       </c>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A330" s="40"/>
       <c r="B330" s="20" t="s">
         <v>52</v>
@@ -11310,11 +11300,11 @@
       </c>
       <c r="I330" s="9"/>
       <c r="J330" s="11"/>
-      <c r="K330" s="50">
+      <c r="K330" s="49">
         <v>45058</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A331" s="40"/>
       <c r="B331" s="20" t="s">
         <v>134</v>
@@ -11331,7 +11321,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A332" s="40"/>
       <c r="B332" s="20" t="s">
         <v>256</v>
@@ -11348,7 +11338,7 @@
       <c r="J332" s="11"/>
       <c r="K332" s="20"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A333" s="40">
         <f>EDATE(A329,1)</f>
         <v>40330</v>
@@ -11373,7 +11363,7 @@
       <c r="J333" s="11"/>
       <c r="K333" s="20"/>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A334" s="40">
         <f t="shared" ref="A334:A344" si="16">EDATE(A333,1)</f>
         <v>40360</v>
@@ -11400,7 +11390,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A335" s="40"/>
       <c r="B335" s="20" t="s">
         <v>52</v>
@@ -11415,11 +11405,11 @@
       </c>
       <c r="I335" s="9"/>
       <c r="J335" s="11"/>
-      <c r="K335" s="50">
+      <c r="K335" s="49">
         <v>45128</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A336" s="40"/>
       <c r="B336" s="20" t="s">
         <v>131</v>
@@ -11436,7 +11426,7 @@
       <c r="J336" s="11"/>
       <c r="K336" s="20"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A337" s="40">
         <f>EDATE(A334,1)</f>
         <v>40391</v>
@@ -11461,7 +11451,7 @@
       <c r="J337" s="11"/>
       <c r="K337" s="20"/>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A338" s="40">
         <f>EDATE(A337,1)</f>
         <v>40422</v>
@@ -11484,11 +11474,11 @@
       </c>
       <c r="I338" s="9"/>
       <c r="J338" s="11"/>
-      <c r="K338" s="50">
+      <c r="K338" s="49">
         <v>45177</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A339" s="40"/>
       <c r="B339" s="20" t="s">
         <v>52</v>
@@ -11503,11 +11493,11 @@
       </c>
       <c r="I339" s="9"/>
       <c r="J339" s="11"/>
-      <c r="K339" s="50">
+      <c r="K339" s="49">
         <v>45186</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A340" s="40"/>
       <c r="B340" s="20" t="s">
         <v>133</v>
@@ -11524,7 +11514,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A341" s="40"/>
       <c r="B341" s="20" t="s">
         <v>261</v>
@@ -11541,7 +11531,7 @@
       <c r="J341" s="11"/>
       <c r="K341" s="20"/>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A342" s="40">
         <f>EDATE(A338,1)</f>
         <v>40452</v>
@@ -11566,7 +11556,7 @@
       <c r="J342" s="11"/>
       <c r="K342" s="20"/>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A343" s="40">
         <f>EDATE(A342,1)</f>
         <v>40483</v>
@@ -11591,7 +11581,7 @@
       <c r="J343" s="11"/>
       <c r="K343" s="20"/>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A344" s="40">
         <f t="shared" si="16"/>
         <v>40513</v>
@@ -11618,7 +11608,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A345" s="40"/>
       <c r="B345" s="20" t="s">
         <v>264</v>
@@ -11638,7 +11628,7 @@
       <c r="J345" s="11"/>
       <c r="K345" s="20"/>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A346" s="48" t="s">
         <v>249</v>
       </c>
@@ -11656,7 +11646,7 @@
       <c r="J346" s="11"/>
       <c r="K346" s="20"/>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A347" s="40">
         <f>EDATE(A344,1)</f>
         <v>40544</v>
@@ -11683,7 +11673,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A348" s="40"/>
       <c r="B348" s="20" t="s">
         <v>52</v>
@@ -11698,11 +11688,11 @@
       </c>
       <c r="I348" s="9"/>
       <c r="J348" s="11"/>
-      <c r="K348" s="50">
+      <c r="K348" s="49">
         <v>44939</v>
       </c>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A349" s="40"/>
       <c r="B349" s="20" t="s">
         <v>52</v>
@@ -11717,11 +11707,11 @@
       </c>
       <c r="I349" s="9"/>
       <c r="J349" s="11"/>
-      <c r="K349" s="50">
+      <c r="K349" s="49">
         <v>44943</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A350" s="40"/>
       <c r="B350" s="20" t="s">
         <v>133</v>
@@ -11738,7 +11728,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A351" s="40"/>
       <c r="B351" s="20" t="s">
         <v>142</v>
@@ -11755,7 +11745,7 @@
       <c r="J351" s="11"/>
       <c r="K351" s="20"/>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A352" s="40">
         <f>EDATE(A347,1)</f>
         <v>40575</v>
@@ -11778,11 +11768,11 @@
       </c>
       <c r="I352" s="9"/>
       <c r="J352" s="11"/>
-      <c r="K352" s="50">
+      <c r="K352" s="49">
         <v>44965</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A353" s="40"/>
       <c r="B353" s="20" t="s">
         <v>269</v>
@@ -11799,7 +11789,7 @@
       <c r="J353" s="11"/>
       <c r="K353" s="20"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A354" s="40">
         <f>EDATE(A352,1)</f>
         <v>40603</v>
@@ -11826,7 +11816,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A355" s="40"/>
       <c r="B355" s="20" t="s">
         <v>55</v>
@@ -11845,7 +11835,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A356" s="40"/>
       <c r="B356" s="20" t="s">
         <v>272</v>
@@ -11862,7 +11852,7 @@
       <c r="J356" s="11"/>
       <c r="K356" s="20"/>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A357" s="40">
         <f>EDATE(A354,1)</f>
         <v>40634</v>
@@ -11874,7 +11864,7 @@
         <v>1.25</v>
       </c>
       <c r="D357" s="43"/>
-      <c r="E357" s="51"/>
+      <c r="E357" s="50"/>
       <c r="F357" s="15"/>
       <c r="G357" s="42">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
@@ -11883,13 +11873,13 @@
       <c r="H357" s="43">
         <v>1</v>
       </c>
-      <c r="I357" s="51"/>
+      <c r="I357" s="50"/>
       <c r="J357" s="12"/>
-      <c r="K357" s="52">
+      <c r="K357" s="51">
         <v>45021</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A358" s="40"/>
       <c r="B358" s="20" t="s">
         <v>273</v>
@@ -11906,7 +11896,7 @@
       <c r="J358" s="11"/>
       <c r="K358" s="20"/>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A359" s="40">
         <f>EDATE(A357,1)</f>
         <v>40664</v>
@@ -11929,11 +11919,11 @@
       </c>
       <c r="I359" s="9"/>
       <c r="J359" s="11"/>
-      <c r="K359" s="50">
+      <c r="K359" s="49">
         <v>45059</v>
       </c>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A360" s="40"/>
       <c r="B360" s="20" t="s">
         <v>74</v>
@@ -11952,7 +11942,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A361" s="40"/>
       <c r="B361" s="20" t="s">
         <v>224</v>
@@ -11969,7 +11959,7 @@
       <c r="J361" s="11"/>
       <c r="K361" s="20"/>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A362" s="40">
         <f>EDATE(A359,1)</f>
         <v>40695</v>
@@ -11996,7 +11986,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A363" s="40"/>
       <c r="B363" s="20" t="s">
         <v>273</v>
@@ -12013,7 +12003,7 @@
       <c r="J363" s="11"/>
       <c r="K363" s="20"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A364" s="40">
         <f>EDATE(A362,1)</f>
         <v>40725</v>
@@ -12038,7 +12028,7 @@
       <c r="J364" s="11"/>
       <c r="K364" s="20"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A365" s="40">
         <f t="shared" ref="A365:A366" si="17">EDATE(A364,1)</f>
         <v>40756</v>
@@ -12063,7 +12053,7 @@
       <c r="J365" s="11"/>
       <c r="K365" s="20"/>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A366" s="40">
         <f t="shared" si="17"/>
         <v>40787</v>
@@ -12086,11 +12076,11 @@
       </c>
       <c r="I366" s="9"/>
       <c r="J366" s="11"/>
-      <c r="K366" s="50">
+      <c r="K366" s="49">
         <v>45170</v>
       </c>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A367" s="40"/>
       <c r="B367" s="20" t="s">
         <v>278</v>
@@ -12107,7 +12097,7 @@
       <c r="J367" s="11"/>
       <c r="K367" s="20"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A368" s="40">
         <f>EDATE(A366,1)</f>
         <v>40817</v>
@@ -12130,11 +12120,11 @@
       </c>
       <c r="I368" s="9"/>
       <c r="J368" s="11"/>
-      <c r="K368" s="50">
+      <c r="K368" s="49">
         <v>45223</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A369" s="40"/>
       <c r="B369" s="20" t="s">
         <v>279</v>
@@ -12151,7 +12141,7 @@
       <c r="J369" s="11"/>
       <c r="K369" s="20"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A370" s="40">
         <f>EDATE(A368,1)</f>
         <v>40848</v>
@@ -12174,11 +12164,11 @@
       <c r="H370" s="39"/>
       <c r="I370" s="9"/>
       <c r="J370" s="11"/>
-      <c r="K370" s="50">
+      <c r="K370" s="49">
         <v>45238</v>
       </c>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A371" s="40"/>
       <c r="B371" s="20" t="s">
         <v>280</v>
@@ -12195,7 +12185,7 @@
       <c r="J371" s="11"/>
       <c r="K371" s="20"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A372" s="40">
         <f>EDATE(A370,1)</f>
         <v>40878</v>
@@ -12222,7 +12212,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A373" s="40"/>
       <c r="B373" s="20" t="s">
         <v>281</v>
@@ -12242,7 +12232,7 @@
       <c r="J373" s="11"/>
       <c r="K373" s="20"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A374" s="48" t="s">
         <v>283</v>
       </c>
@@ -12260,7 +12250,7 @@
       <c r="J374" s="11"/>
       <c r="K374" s="20"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A375" s="40">
         <f>EDATE(A372,1)</f>
         <v>40909</v>
@@ -12285,7 +12275,7 @@
       <c r="J375" s="11"/>
       <c r="K375" s="20"/>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A376" s="40">
         <f>EDATE(A375,1)</f>
         <v>40940</v>
@@ -12310,7 +12300,7 @@
       <c r="J376" s="11"/>
       <c r="K376" s="20"/>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A377" s="40">
         <f t="shared" ref="A377:A385" si="18">EDATE(A376,1)</f>
         <v>40969</v>
@@ -12335,7 +12325,7 @@
       <c r="J377" s="11"/>
       <c r="K377" s="20"/>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A378" s="40">
         <f t="shared" si="18"/>
         <v>41000</v>
@@ -12360,7 +12350,7 @@
       <c r="J378" s="11"/>
       <c r="K378" s="20"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A379" s="40">
         <f t="shared" si="18"/>
         <v>41030</v>
@@ -12383,11 +12373,11 @@
       </c>
       <c r="I379" s="9"/>
       <c r="J379" s="11"/>
-      <c r="K379" s="50">
+      <c r="K379" s="49">
         <v>45075</v>
       </c>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A380" s="40"/>
       <c r="B380" s="20" t="s">
         <v>288</v>
@@ -12402,9 +12392,9 @@
       <c r="H380" s="39"/>
       <c r="I380" s="9"/>
       <c r="J380" s="11"/>
-      <c r="K380" s="50"/>
-    </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K380" s="49"/>
+    </row>
+    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A381" s="40">
         <f>EDATE(A379,1)</f>
         <v>41061</v>
@@ -12429,7 +12419,7 @@
       <c r="J381" s="11"/>
       <c r="K381" s="20"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A382" s="40">
         <f t="shared" si="18"/>
         <v>41091</v>
@@ -12454,7 +12444,7 @@
       <c r="J382" s="11"/>
       <c r="K382" s="20"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A383" s="40">
         <f t="shared" si="18"/>
         <v>41122</v>
@@ -12479,7 +12469,7 @@
       <c r="J383" s="11"/>
       <c r="K383" s="20"/>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A384" s="40">
         <f t="shared" si="18"/>
         <v>41153</v>
@@ -12504,7 +12494,7 @@
       <c r="J384" s="11"/>
       <c r="K384" s="20"/>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A385" s="40">
         <f t="shared" si="18"/>
         <v>41183</v>
@@ -12529,7 +12519,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A386" s="40"/>
       <c r="B386" s="20" t="s">
         <v>55</v>
@@ -12546,7 +12536,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A387" s="40"/>
       <c r="B387" s="20" t="s">
         <v>293</v>
@@ -12563,7 +12553,7 @@
       <c r="J387" s="11"/>
       <c r="K387" s="20"/>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A388" s="40">
         <f>EDATE(A385,1)</f>
         <v>41214</v>
@@ -12588,7 +12578,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A389" s="40"/>
       <c r="B389" s="20" t="s">
         <v>296</v>
@@ -12605,7 +12595,7 @@
       <c r="J389" s="11"/>
       <c r="K389" s="20"/>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A390" s="40">
         <f>EDATE(A388,1)</f>
         <v>41244</v>
@@ -12628,11 +12618,11 @@
       <c r="H390" s="39"/>
       <c r="I390" s="9"/>
       <c r="J390" s="11"/>
-      <c r="K390" s="50">
+      <c r="K390" s="49">
         <v>45274</v>
       </c>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A391" s="40"/>
       <c r="B391" s="20" t="s">
         <v>188</v>
@@ -12650,11 +12640,11 @@
       <c r="H391" s="39"/>
       <c r="I391" s="9"/>
       <c r="J391" s="11"/>
-      <c r="K391" s="50">
+      <c r="K391" s="49">
         <v>45278</v>
       </c>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A392" s="40"/>
       <c r="B392" s="20" t="s">
         <v>200</v>
@@ -12676,7 +12666,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A393" s="40"/>
       <c r="B393" s="20" t="s">
         <v>298</v>
@@ -12696,7 +12686,7 @@
       <c r="J393" s="11"/>
       <c r="K393" s="20"/>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A394" s="48" t="s">
         <v>284</v>
       </c>
@@ -12714,7 +12704,7 @@
       <c r="J394" s="11"/>
       <c r="K394" s="20"/>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A395" s="40">
         <f>EDATE(A390,1)</f>
         <v>41275</v>
@@ -12739,7 +12729,7 @@
       <c r="J395" s="11"/>
       <c r="K395" s="20"/>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A396" s="40">
         <f>EDATE(A395,1)</f>
         <v>41306</v>
@@ -12762,11 +12752,11 @@
       <c r="H396" s="39"/>
       <c r="I396" s="9"/>
       <c r="J396" s="11"/>
-      <c r="K396" s="50">
+      <c r="K396" s="49">
         <v>44968</v>
       </c>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A397" s="40"/>
       <c r="B397" s="20" t="s">
         <v>133</v>
@@ -12783,7 +12773,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A398" s="40"/>
       <c r="B398" s="20" t="s">
         <v>302</v>
@@ -12798,7 +12788,7 @@
       <c r="J398" s="11"/>
       <c r="K398" s="20"/>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A399" s="40">
         <f>EDATE(A396,1)</f>
         <v>41334</v>
@@ -12821,11 +12811,11 @@
       <c r="H399" s="39"/>
       <c r="I399" s="9"/>
       <c r="J399" s="11"/>
-      <c r="K399" s="50">
+      <c r="K399" s="49">
         <v>45005</v>
       </c>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A400" s="40"/>
       <c r="B400" s="20" t="s">
         <v>303</v>
@@ -12840,7 +12830,7 @@
       <c r="J400" s="11"/>
       <c r="K400" s="20"/>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A401" s="40">
         <f>EDATE(A399,1)</f>
         <v>41365</v>
@@ -12865,7 +12855,7 @@
       <c r="J401" s="11"/>
       <c r="K401" s="20"/>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A402" s="40">
         <f t="shared" ref="A402:A411" si="19">EDATE(A401,1)</f>
         <v>41395</v>
@@ -12888,11 +12878,11 @@
       <c r="H402" s="39"/>
       <c r="I402" s="9"/>
       <c r="J402" s="11"/>
-      <c r="K402" s="50">
+      <c r="K402" s="49">
         <v>45074</v>
       </c>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A403" s="40"/>
       <c r="B403" s="20" t="s">
         <v>139</v>
@@ -12909,7 +12899,7 @@
       <c r="J403" s="11"/>
       <c r="K403" s="20"/>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A404" s="40">
         <f>EDATE(A402,1)</f>
         <v>41426</v>
@@ -12934,7 +12924,7 @@
       <c r="J404" s="11"/>
       <c r="K404" s="20"/>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A405" s="40">
         <f t="shared" si="19"/>
         <v>41456</v>
@@ -12959,7 +12949,7 @@
       <c r="J405" s="11"/>
       <c r="K405" s="20"/>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A406" s="40">
         <f t="shared" si="19"/>
         <v>41487</v>
@@ -12984,7 +12974,7 @@
       <c r="J406" s="11"/>
       <c r="K406" s="20"/>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A407" s="40">
         <f t="shared" si="19"/>
         <v>41518</v>
@@ -13009,7 +12999,7 @@
       <c r="J407" s="11"/>
       <c r="K407" s="20"/>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A408" s="40">
         <f t="shared" si="19"/>
         <v>41548</v>
@@ -13036,7 +13026,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A409" s="40"/>
       <c r="B409" s="20" t="s">
         <v>309</v>
@@ -13053,7 +13043,7 @@
       <c r="J409" s="11"/>
       <c r="K409" s="20"/>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A410" s="40">
         <f>EDATE(A408,1)</f>
         <v>41579</v>
@@ -13078,7 +13068,7 @@
       <c r="J410" s="11"/>
       <c r="K410" s="20"/>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A411" s="40">
         <f t="shared" si="19"/>
         <v>41609</v>
@@ -13090,20 +13080,20 @@
         <v>1.25</v>
       </c>
       <c r="D411" s="43"/>
-      <c r="E411" s="51"/>
+      <c r="E411" s="50"/>
       <c r="F411" s="15"/>
       <c r="G411" s="42">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H411" s="43"/>
-      <c r="I411" s="51"/>
+      <c r="I411" s="50"/>
       <c r="J411" s="12"/>
       <c r="K411" s="15" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A412" s="40"/>
       <c r="B412" s="20" t="s">
         <v>68</v>
@@ -13125,7 +13115,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A413" s="40"/>
       <c r="B413" s="20" t="s">
         <v>313</v>
@@ -13145,7 +13135,7 @@
       <c r="J413" s="11"/>
       <c r="K413" s="20"/>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A414" s="48" t="s">
         <v>300</v>
       </c>
@@ -13163,7 +13153,7 @@
       <c r="J414" s="11"/>
       <c r="K414" s="20"/>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A415" s="40">
         <f>EDATE(A411,1)</f>
         <v>41640</v>
@@ -13188,7 +13178,7 @@
       <c r="J415" s="11"/>
       <c r="K415" s="20"/>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A416" s="40"/>
       <c r="B416" s="20" t="s">
         <v>66</v>
@@ -13207,7 +13197,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A417" s="40">
         <f>EDATE(A415,1)</f>
         <v>41671</v>
@@ -13230,11 +13220,11 @@
       <c r="H417" s="39"/>
       <c r="I417" s="9"/>
       <c r="J417" s="11"/>
-      <c r="K417" s="50">
+      <c r="K417" s="49">
         <v>44968</v>
       </c>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A418" s="40"/>
       <c r="B418" s="20" t="s">
         <v>316</v>
@@ -13251,7 +13241,7 @@
       <c r="J418" s="11"/>
       <c r="K418" s="20"/>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A419" s="40">
         <f>EDATE(A417,1)</f>
         <v>41699</v>
@@ -13276,7 +13266,7 @@
       <c r="J419" s="11"/>
       <c r="K419" s="20"/>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A420" s="40">
         <f t="shared" ref="A420:A424" si="20">EDATE(A419,1)</f>
         <v>41730</v>
@@ -13301,7 +13291,7 @@
       <c r="J420" s="11"/>
       <c r="K420" s="20"/>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A421" s="40">
         <f t="shared" si="20"/>
         <v>41760</v>
@@ -13326,7 +13316,7 @@
       <c r="J421" s="11"/>
       <c r="K421" s="20"/>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A422" s="40">
         <f t="shared" si="20"/>
         <v>41791</v>
@@ -13351,7 +13341,7 @@
       <c r="J422" s="11"/>
       <c r="K422" s="20"/>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A423" s="40">
         <f t="shared" si="20"/>
         <v>41821</v>
@@ -13376,7 +13366,7 @@
       <c r="J423" s="11"/>
       <c r="K423" s="20"/>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A424" s="40">
         <f t="shared" si="20"/>
         <v>41852</v>
@@ -13401,7 +13391,7 @@
       <c r="J424" s="11"/>
       <c r="K424" s="20"/>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A425" s="40">
         <f>EDATE(A424,1)</f>
         <v>41883</v>
@@ -13424,11 +13414,11 @@
       </c>
       <c r="I425" s="9"/>
       <c r="J425" s="11"/>
-      <c r="K425" s="50">
+      <c r="K425" s="49">
         <v>45180</v>
       </c>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A426" s="40"/>
       <c r="B426" s="20" t="s">
         <v>322</v>
@@ -13445,7 +13435,7 @@
       <c r="J426" s="11"/>
       <c r="K426" s="20"/>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A427" s="40">
         <f>EDATE(A425,1)</f>
         <v>41913</v>
@@ -13472,7 +13462,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A428" s="40"/>
       <c r="B428" s="20" t="s">
         <v>133</v>
@@ -13489,7 +13479,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A429" s="40"/>
       <c r="B429" s="20" t="s">
         <v>323</v>
@@ -13506,7 +13496,7 @@
       <c r="J429" s="11"/>
       <c r="K429" s="20"/>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A430" s="40">
         <f>EDATE(A427,1)</f>
         <v>41944</v>
@@ -13533,7 +13523,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A431" s="40"/>
       <c r="B431" s="20" t="s">
         <v>324</v>
@@ -13550,7 +13540,7 @@
       <c r="J431" s="11"/>
       <c r="K431" s="20"/>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A432" s="40">
         <f>EDATE(A430,1)</f>
         <v>41974</v>
@@ -13575,7 +13565,7 @@
       <c r="J432" s="11"/>
       <c r="K432" s="20"/>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A433" s="40"/>
       <c r="B433" s="20" t="s">
         <v>55</v>
@@ -13597,7 +13587,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A434" s="48" t="s">
         <v>314</v>
       </c>
@@ -13615,7 +13605,7 @@
       <c r="J434" s="11"/>
       <c r="K434" s="20"/>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A435" s="40">
         <f>EDATE(A432,1)</f>
         <v>42005</v>
@@ -13640,7 +13630,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A436" s="40"/>
       <c r="B436" s="20" t="s">
         <v>333</v>
@@ -13657,7 +13647,7 @@
       <c r="J436" s="11"/>
       <c r="K436" s="20"/>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A437" s="40">
         <f>EDATE(A435,1)</f>
         <v>42036</v>
@@ -13680,11 +13670,11 @@
       </c>
       <c r="I437" s="9"/>
       <c r="J437" s="11"/>
-      <c r="K437" s="50">
+      <c r="K437" s="49">
         <v>44973</v>
       </c>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A438" s="40"/>
       <c r="B438" s="20" t="s">
         <v>335</v>
@@ -13701,7 +13691,7 @@
       <c r="J438" s="11"/>
       <c r="K438" s="20"/>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A439" s="40">
         <f>EDATE(A437,1)</f>
         <v>42064</v>
@@ -13726,7 +13716,7 @@
       <c r="J439" s="11"/>
       <c r="K439" s="20"/>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A440" s="40">
         <f t="shared" ref="A440:A449" si="21">EDATE(A439,1)</f>
         <v>42095</v>
@@ -13751,7 +13741,7 @@
       <c r="J440" s="11"/>
       <c r="K440" s="20"/>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A441" s="40"/>
       <c r="B441" s="20" t="s">
         <v>52</v>
@@ -13766,11 +13756,11 @@
       </c>
       <c r="I441" s="9"/>
       <c r="J441" s="11"/>
-      <c r="K441" s="50">
+      <c r="K441" s="49">
         <v>45037</v>
       </c>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A442" s="40">
         <f>EDATE(A440,1)</f>
         <v>42125</v>
@@ -13791,7 +13781,7 @@
       <c r="J442" s="11"/>
       <c r="K442" s="20"/>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A443" s="40">
         <f t="shared" si="21"/>
         <v>42156</v>
@@ -13812,7 +13802,7 @@
       <c r="J443" s="11"/>
       <c r="K443" s="20"/>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A444" s="40">
         <f t="shared" si="21"/>
         <v>42186</v>
@@ -13833,7 +13823,7 @@
       <c r="J444" s="11"/>
       <c r="K444" s="20"/>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A445" s="40">
         <f t="shared" si="21"/>
         <v>42217</v>
@@ -13858,7 +13848,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A446" s="40">
         <f t="shared" si="21"/>
         <v>42248</v>
@@ -13879,7 +13869,7 @@
       <c r="J446" s="11"/>
       <c r="K446" s="20"/>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A447" s="40">
         <f t="shared" si="21"/>
         <v>42278</v>
@@ -13906,7 +13896,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A448" s="40">
         <f t="shared" si="21"/>
         <v>42309</v>
@@ -13927,7 +13917,7 @@
       <c r="J448" s="11"/>
       <c r="K448" s="20"/>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A449" s="40">
         <f t="shared" si="21"/>
         <v>42339</v>
@@ -13952,7 +13942,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A450" s="48" t="s">
         <v>332</v>
       </c>
@@ -13970,7 +13960,7 @@
       <c r="J450" s="11"/>
       <c r="K450" s="20"/>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A451" s="40">
         <f>EDATE(A449,1)</f>
         <v>42370</v>
@@ -13991,7 +13981,7 @@
       <c r="J451" s="11"/>
       <c r="K451" s="20"/>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A452" s="40">
         <f>EDATE(A451,1)</f>
         <v>42401</v>
@@ -14016,7 +14006,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A453" s="40">
         <f t="shared" ref="A453:A467" si="22">EDATE(A452,1)</f>
         <v>42430</v>
@@ -14037,7 +14027,7 @@
       <c r="J453" s="11"/>
       <c r="K453" s="20"/>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A454" s="40">
         <f t="shared" si="22"/>
         <v>42461</v>
@@ -14060,11 +14050,11 @@
       </c>
       <c r="I454" s="9"/>
       <c r="J454" s="11"/>
-      <c r="K454" s="50">
+      <c r="K454" s="49">
         <v>45024</v>
       </c>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A455" s="40"/>
       <c r="B455" s="20" t="s">
         <v>52</v>
@@ -14079,11 +14069,11 @@
       </c>
       <c r="I455" s="9"/>
       <c r="J455" s="11"/>
-      <c r="K455" s="50">
+      <c r="K455" s="49">
         <v>45041</v>
       </c>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A456" s="40">
         <f>EDATE(A454,1)</f>
         <v>42491</v>
@@ -14106,11 +14096,11 @@
       </c>
       <c r="I456" s="9"/>
       <c r="J456" s="11"/>
-      <c r="K456" s="50">
+      <c r="K456" s="49">
         <v>45076</v>
       </c>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A457" s="40"/>
       <c r="B457" s="20" t="s">
         <v>52</v>
@@ -14125,11 +14115,11 @@
       </c>
       <c r="I457" s="9"/>
       <c r="J457" s="11"/>
-      <c r="K457" s="50">
+      <c r="K457" s="49">
         <v>45106</v>
       </c>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A458" s="40">
         <f>EDATE(A456,1)</f>
         <v>42522</v>
@@ -14150,7 +14140,7 @@
       <c r="J458" s="11"/>
       <c r="K458" s="20"/>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A459" s="40">
         <f t="shared" si="22"/>
         <v>42552</v>
@@ -14175,7 +14165,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A460" s="40">
         <f t="shared" si="22"/>
         <v>42583</v>
@@ -14198,11 +14188,11 @@
       <c r="H460" s="39"/>
       <c r="I460" s="9"/>
       <c r="J460" s="11"/>
-      <c r="K460" s="50">
+      <c r="K460" s="49">
         <v>45146</v>
       </c>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A461" s="40"/>
       <c r="B461" s="20" t="s">
         <v>52</v>
@@ -14217,11 +14207,11 @@
       </c>
       <c r="I461" s="9"/>
       <c r="J461" s="11"/>
-      <c r="K461" s="50">
+      <c r="K461" s="49">
         <v>45147</v>
       </c>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A462" s="40"/>
       <c r="B462" s="20" t="s">
         <v>100</v>
@@ -14240,7 +14230,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A463" s="40">
         <f>EDATE(A460,1)</f>
         <v>42614</v>
@@ -14261,7 +14251,7 @@
       <c r="J463" s="11"/>
       <c r="K463" s="20"/>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A464" s="40">
         <f t="shared" si="22"/>
         <v>42644</v>
@@ -14273,20 +14263,20 @@
         <v>1.25</v>
       </c>
       <c r="D464" s="43"/>
-      <c r="E464" s="51"/>
+      <c r="E464" s="50"/>
       <c r="F464" s="15"/>
       <c r="G464" s="42">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H464" s="43"/>
-      <c r="I464" s="51"/>
+      <c r="I464" s="50"/>
       <c r="J464" s="12"/>
       <c r="K464" s="15" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A465" s="40"/>
       <c r="B465" s="20" t="s">
         <v>100</v>
@@ -14305,7 +14295,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A466" s="40">
         <f>EDATE(A464,1)</f>
         <v>42675</v>
@@ -14328,11 +14318,11 @@
       <c r="H466" s="39"/>
       <c r="I466" s="9"/>
       <c r="J466" s="11"/>
-      <c r="K466" s="50">
+      <c r="K466" s="49">
         <v>45251</v>
       </c>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A467" s="40">
         <f t="shared" si="22"/>
         <v>42705</v>
@@ -14355,11 +14345,11 @@
       <c r="H467" s="39"/>
       <c r="I467" s="9"/>
       <c r="J467" s="11"/>
-      <c r="K467" s="50">
+      <c r="K467" s="49">
         <v>45266</v>
       </c>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A468" s="40"/>
       <c r="B468" s="20" t="s">
         <v>68</v>
@@ -14381,7 +14371,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A469" s="48" t="s">
         <v>341</v>
       </c>
@@ -14399,7 +14389,7 @@
       <c r="J469" s="11"/>
       <c r="K469" s="20"/>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A470" s="40">
         <f>EDATE(A467,1)</f>
         <v>42736</v>
@@ -14426,7 +14416,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A471" s="40"/>
       <c r="B471" s="20" t="s">
         <v>134</v>
@@ -14446,7 +14436,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A472" s="40"/>
       <c r="B472" s="20" t="s">
         <v>134</v>
@@ -14466,7 +14456,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A473" s="40"/>
       <c r="B473" s="20" t="s">
         <v>134</v>
@@ -14486,7 +14476,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A474" s="40"/>
       <c r="B474" s="20" t="s">
         <v>351</v>
@@ -14503,7 +14493,7 @@
       <c r="J474" s="11"/>
       <c r="K474" s="20"/>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A475" s="40">
         <f>EDATE(A470,1)</f>
         <v>42767</v>
@@ -14524,7 +14514,7 @@
       <c r="J475" s="11"/>
       <c r="K475" s="20"/>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A476" s="40">
         <f t="shared" ref="A476:A489" si="23">EDATE(A475,1)</f>
         <v>42795</v>
@@ -14545,7 +14535,7 @@
       <c r="J476" s="11"/>
       <c r="K476" s="20"/>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A477" s="40">
         <f t="shared" si="23"/>
         <v>42826</v>
@@ -14566,7 +14556,7 @@
       <c r="J477" s="11"/>
       <c r="K477" s="20"/>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A478" s="40">
         <f t="shared" si="23"/>
         <v>42856</v>
@@ -14589,11 +14579,11 @@
       </c>
       <c r="I478" s="9"/>
       <c r="J478" s="11"/>
-      <c r="K478" s="50">
+      <c r="K478" s="49">
         <v>45048</v>
       </c>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A479" s="40"/>
       <c r="B479" s="20" t="s">
         <v>55</v>
@@ -14612,7 +14602,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A480" s="40"/>
       <c r="B480" s="20" t="s">
         <v>55</v>
@@ -14631,7 +14621,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A481" s="40">
         <f>EDATE(A478,1)</f>
         <v>42887</v>
@@ -14652,7 +14642,7 @@
       <c r="J481" s="11"/>
       <c r="K481" s="20"/>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A482" s="40">
         <f t="shared" si="23"/>
         <v>42917</v>
@@ -14679,7 +14669,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A483" s="40">
         <f t="shared" si="23"/>
         <v>42948</v>
@@ -14706,7 +14696,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A484" s="40">
         <f t="shared" si="23"/>
         <v>42979</v>
@@ -14733,7 +14723,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A485" s="40"/>
       <c r="B485" s="20" t="s">
         <v>55</v>
@@ -14752,7 +14742,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A486" s="40">
         <f>EDATE(A484,1)</f>
         <v>43009</v>
@@ -14779,7 +14769,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A487" s="40"/>
       <c r="B487" s="20" t="s">
         <v>100</v>
@@ -14798,7 +14788,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A488" s="40">
         <f>EDATE(A486,1)</f>
         <v>43040</v>
@@ -14819,7 +14809,7 @@
       <c r="J488" s="11"/>
       <c r="K488" s="20"/>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A489" s="40">
         <f t="shared" si="23"/>
         <v>43070</v>
@@ -14840,7 +14830,7 @@
       <c r="J489" s="11"/>
       <c r="K489" s="20"/>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A490" s="48" t="s">
         <v>359</v>
       </c>
@@ -14858,7 +14848,7 @@
       <c r="J490" s="11"/>
       <c r="K490" s="20"/>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A491" s="40">
         <f>EDATE(A489,1)</f>
         <v>43101</v>
@@ -14879,7 +14869,7 @@
       <c r="J491" s="11"/>
       <c r="K491" s="20"/>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A492" s="40">
         <f>EDATE(A491,1)</f>
         <v>43132</v>
@@ -14900,7 +14890,7 @@
       <c r="J492" s="11"/>
       <c r="K492" s="20"/>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A493" s="40">
         <f t="shared" ref="A493:A504" si="24">EDATE(A492,1)</f>
         <v>43160</v>
@@ -14921,7 +14911,7 @@
       <c r="J493" s="11"/>
       <c r="K493" s="20"/>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A494" s="40">
         <f t="shared" si="24"/>
         <v>43191</v>
@@ -14948,7 +14938,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A495" s="40"/>
       <c r="B495" s="20" t="s">
         <v>52</v>
@@ -14963,11 +14953,11 @@
       </c>
       <c r="I495" s="9"/>
       <c r="J495" s="11"/>
-      <c r="K495" s="50">
+      <c r="K495" s="49">
         <v>45021</v>
       </c>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A496" s="40"/>
       <c r="B496" s="20" t="s">
         <v>63</v>
@@ -14986,7 +14976,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A497" s="40">
         <f>EDATE(A494,1)</f>
         <v>43221</v>
@@ -15009,11 +14999,11 @@
       <c r="H497" s="39"/>
       <c r="I497" s="9"/>
       <c r="J497" s="11"/>
-      <c r="K497" s="50">
+      <c r="K497" s="49">
         <v>45070</v>
       </c>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A498" s="40">
         <f t="shared" si="24"/>
         <v>43252</v>
@@ -15034,7 +15024,7 @@
       <c r="J498" s="11"/>
       <c r="K498" s="20"/>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A499" s="40">
         <f t="shared" si="24"/>
         <v>43282</v>
@@ -15055,7 +15045,7 @@
       <c r="J499" s="11"/>
       <c r="K499" s="20"/>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A500" s="40">
         <f t="shared" si="24"/>
         <v>43313</v>
@@ -15076,7 +15066,7 @@
       <c r="J500" s="11"/>
       <c r="K500" s="20"/>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A501" s="40">
         <f t="shared" si="24"/>
         <v>43344</v>
@@ -15097,7 +15087,7 @@
       <c r="J501" s="11"/>
       <c r="K501" s="20"/>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A502" s="40">
         <f>EDATE(A501,1)</f>
         <v>43374</v>
@@ -15122,7 +15112,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A503" s="40">
         <f t="shared" si="24"/>
         <v>43405</v>
@@ -15143,7 +15133,7 @@
       <c r="J503" s="11"/>
       <c r="K503" s="20"/>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A504" s="40">
         <f t="shared" si="24"/>
         <v>43435</v>
@@ -15170,7 +15160,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A505" s="48" t="s">
         <v>360</v>
       </c>
@@ -15188,7 +15178,7 @@
       <c r="J505" s="11"/>
       <c r="K505" s="20"/>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A506" s="40">
         <f>EDATE(A504,1)</f>
         <v>43466</v>
@@ -15211,11 +15201,11 @@
       </c>
       <c r="I506" s="9"/>
       <c r="J506" s="11"/>
-      <c r="K506" s="50">
+      <c r="K506" s="49">
         <v>44949</v>
       </c>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A507" s="40">
         <f>EDATE(A506,1)</f>
         <v>43497</v>
@@ -15236,7 +15226,7 @@
       <c r="J507" s="11"/>
       <c r="K507" s="20"/>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A508" s="40">
         <f t="shared" ref="A508:A525" si="25">EDATE(A507,1)</f>
         <v>43525</v>
@@ -15259,11 +15249,11 @@
       </c>
       <c r="I508" s="9"/>
       <c r="J508" s="11"/>
-      <c r="K508" s="50">
+      <c r="K508" s="49">
         <v>45014</v>
       </c>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A509" s="40">
         <f t="shared" si="25"/>
         <v>43556</v>
@@ -15286,11 +15276,11 @@
       </c>
       <c r="I509" s="9"/>
       <c r="J509" s="11"/>
-      <c r="K509" s="50">
+      <c r="K509" s="49">
         <v>45021</v>
       </c>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A510" s="40"/>
       <c r="B510" s="20" t="s">
         <v>52</v>
@@ -15305,11 +15295,11 @@
       </c>
       <c r="I510" s="9"/>
       <c r="J510" s="11"/>
-      <c r="K510" s="50">
+      <c r="K510" s="49">
         <v>45038</v>
       </c>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A511" s="40">
         <f>EDATE(A509,1)</f>
         <v>43586</v>
@@ -15332,11 +15322,11 @@
       </c>
       <c r="I511" s="9"/>
       <c r="J511" s="11"/>
-      <c r="K511" s="50">
+      <c r="K511" s="49">
         <v>45049</v>
       </c>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A512" s="40"/>
       <c r="B512" s="20" t="s">
         <v>53</v>
@@ -15351,11 +15341,11 @@
       <c r="H512" s="39"/>
       <c r="I512" s="9"/>
       <c r="J512" s="11"/>
-      <c r="K512" s="50">
+      <c r="K512" s="49">
         <v>45068</v>
       </c>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A513" s="40"/>
       <c r="B513" s="20" t="s">
         <v>100</v>
@@ -15374,7 +15364,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A514" s="40">
         <f>EDATE(A511,1)</f>
         <v>43617</v>
@@ -15397,11 +15387,11 @@
       </c>
       <c r="I514" s="9"/>
       <c r="J514" s="11"/>
-      <c r="K514" s="50">
+      <c r="K514" s="49">
         <v>45090</v>
       </c>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A515" s="40">
         <f t="shared" si="25"/>
         <v>43647</v>
@@ -15424,11 +15414,11 @@
       </c>
       <c r="I515" s="9"/>
       <c r="J515" s="11"/>
-      <c r="K515" s="50">
+      <c r="K515" s="49">
         <v>45116</v>
       </c>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A516" s="40"/>
       <c r="B516" s="20" t="s">
         <v>63</v>
@@ -15447,7 +15437,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A517" s="40">
         <f>EDATE(A515,1)</f>
         <v>43678</v>
@@ -15474,7 +15464,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A518" s="40">
         <f t="shared" si="25"/>
         <v>43709</v>
@@ -15497,11 +15487,11 @@
       </c>
       <c r="I518" s="9"/>
       <c r="J518" s="11"/>
-      <c r="K518" s="50">
+      <c r="K518" s="49">
         <v>45180</v>
       </c>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A519" s="40"/>
       <c r="B519" s="20" t="s">
         <v>52</v>
@@ -15516,11 +15506,11 @@
       </c>
       <c r="I519" s="9"/>
       <c r="J519" s="11"/>
-      <c r="K519" s="50">
+      <c r="K519" s="49">
         <v>45185</v>
       </c>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A520" s="40"/>
       <c r="B520" s="20" t="s">
         <v>100</v>
@@ -15539,7 +15529,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A521" s="40"/>
       <c r="B521" s="20" t="s">
         <v>53</v>
@@ -15554,11 +15544,11 @@
       <c r="H521" s="39"/>
       <c r="I521" s="9"/>
       <c r="J521" s="11"/>
-      <c r="K521" s="50">
+      <c r="K521" s="49">
         <v>45223</v>
       </c>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A522" s="40">
         <f>EDATE(A518,1)</f>
         <v>43739</v>
@@ -15583,9 +15573,9 @@
         <v>371</v>
       </c>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A523" s="40"/>
-      <c r="B523" s="53" t="s">
+      <c r="B523" s="52" t="s">
         <v>372</v>
       </c>
       <c r="C523" s="13"/>
@@ -15599,11 +15589,11 @@
       <c r="H523" s="39"/>
       <c r="I523" s="9"/>
       <c r="J523" s="11"/>
-      <c r="K523" s="54" t="s">
+      <c r="K523" s="53" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A524" s="40">
         <f>EDATE(A522,1)</f>
         <v>43770</v>
@@ -15626,11 +15616,11 @@
       </c>
       <c r="I524" s="9"/>
       <c r="J524" s="11"/>
-      <c r="K524" s="50">
+      <c r="K524" s="49">
         <v>45259</v>
       </c>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A525" s="40">
         <f t="shared" si="25"/>
         <v>43800</v>
@@ -15651,7 +15641,7 @@
       <c r="J525" s="11"/>
       <c r="K525" s="20"/>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A526" s="48" t="s">
         <v>374</v>
       </c>
@@ -15669,7 +15659,7 @@
       <c r="J526" s="11"/>
       <c r="K526" s="20"/>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A527" s="41">
         <f>EDATE(A525,1)</f>
         <v>43831</v>
@@ -15683,20 +15673,20 @@
       <c r="D527" s="43">
         <v>5</v>
       </c>
-      <c r="E527" s="51"/>
+      <c r="E527" s="50"/>
       <c r="F527" s="15"/>
       <c r="G527" s="42">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H527" s="43"/>
-      <c r="I527" s="51"/>
+      <c r="I527" s="50"/>
       <c r="J527" s="12"/>
-      <c r="K527" s="55" t="s">
+      <c r="K527" s="54" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A528" s="40"/>
       <c r="B528" s="20" t="s">
         <v>134</v>
@@ -15711,7 +15701,7 @@
       <c r="J528" s="11"/>
       <c r="K528" s="20"/>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A529" s="40">
         <f>EDATE(A527,1)</f>
         <v>43862</v>
@@ -15732,7 +15722,7 @@
       <c r="J529" s="11"/>
       <c r="K529" s="20"/>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A530" s="40">
         <f t="shared" ref="A530:A542" si="26">EDATE(A529,1)</f>
         <v>43891</v>
@@ -15753,7 +15743,7 @@
       <c r="J530" s="11"/>
       <c r="K530" s="20"/>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A531" s="40">
         <f t="shared" si="26"/>
         <v>43922</v>
@@ -15774,7 +15764,7 @@
       <c r="J531" s="11"/>
       <c r="K531" s="20"/>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A532" s="40">
         <f t="shared" si="26"/>
         <v>43952</v>
@@ -15795,7 +15785,7 @@
       <c r="J532" s="11"/>
       <c r="K532" s="20"/>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A533" s="40">
         <f t="shared" si="26"/>
         <v>43983</v>
@@ -15816,7 +15806,7 @@
       <c r="J533" s="11"/>
       <c r="K533" s="20"/>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A534" s="40">
         <f t="shared" si="26"/>
         <v>44013</v>
@@ -15841,7 +15831,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A535" s="40">
         <f t="shared" si="26"/>
         <v>44044</v>
@@ -15862,7 +15852,7 @@
       <c r="J535" s="11"/>
       <c r="K535" s="20"/>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A536" s="40">
         <f t="shared" si="26"/>
         <v>44075</v>
@@ -15889,7 +15879,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A537" s="40"/>
       <c r="B537" s="20" t="s">
         <v>52</v>
@@ -15904,11 +15894,11 @@
       </c>
       <c r="I537" s="9"/>
       <c r="J537" s="11"/>
-      <c r="K537" s="50">
+      <c r="K537" s="49">
         <v>45184</v>
       </c>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A538" s="40"/>
       <c r="B538" s="20" t="s">
         <v>55</v>
@@ -15927,7 +15917,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A539" s="40"/>
       <c r="B539" s="20" t="s">
         <v>55</v>
@@ -15946,7 +15936,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A540" s="40">
         <f>EDATE(A536,1)</f>
         <v>44105</v>
@@ -15967,7 +15957,7 @@
       <c r="J540" s="11"/>
       <c r="K540" s="20"/>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A541" s="40">
         <f>EDATE(A540,1)</f>
         <v>44136</v>
@@ -15988,7 +15978,7 @@
       <c r="J541" s="11"/>
       <c r="K541" s="20"/>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A542" s="40">
         <f t="shared" si="26"/>
         <v>44166</v>
@@ -16013,7 +16003,7 @@
       <c r="J542" s="11"/>
       <c r="K542" s="20"/>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A543" s="48" t="s">
         <v>375</v>
       </c>
@@ -16031,7 +16021,7 @@
       <c r="J543" s="11"/>
       <c r="K543" s="20"/>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A544" s="40">
         <f>EDATE(A542,1)</f>
         <v>44197</v>
@@ -16052,7 +16042,7 @@
       <c r="J544" s="11"/>
       <c r="K544" s="20"/>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A545" s="40">
         <f>EDATE(A544,1)</f>
         <v>44228</v>
@@ -16073,7 +16063,7 @@
       <c r="J545" s="11"/>
       <c r="K545" s="20"/>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A546" s="40">
         <f t="shared" ref="A546:A556" si="27">EDATE(A545,1)</f>
         <v>44256</v>
@@ -16094,7 +16084,7 @@
       <c r="J546" s="11"/>
       <c r="K546" s="20"/>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A547" s="40">
         <f t="shared" si="27"/>
         <v>44287</v>
@@ -16115,7 +16105,7 @@
       <c r="J547" s="11"/>
       <c r="K547" s="20"/>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A548" s="40">
         <f t="shared" si="27"/>
         <v>44317</v>
@@ -16136,7 +16126,7 @@
       <c r="J548" s="11"/>
       <c r="K548" s="20"/>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A549" s="40">
         <f t="shared" si="27"/>
         <v>44348</v>
@@ -16157,7 +16147,7 @@
       <c r="J549" s="11"/>
       <c r="K549" s="20"/>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A550" s="40">
         <f t="shared" si="27"/>
         <v>44378</v>
@@ -16182,7 +16172,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A551" s="40">
         <f t="shared" si="27"/>
         <v>44409</v>
@@ -16203,7 +16193,7 @@
       <c r="J551" s="11"/>
       <c r="K551" s="20"/>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A552" s="40">
         <f t="shared" si="27"/>
         <v>44440</v>
@@ -16224,11 +16214,11 @@
       <c r="H552" s="39"/>
       <c r="I552" s="9"/>
       <c r="J552" s="11"/>
-      <c r="K552" s="53" t="s">
+      <c r="K552" s="52" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A553" s="40"/>
       <c r="B553" s="20" t="s">
         <v>66</v>
@@ -16247,7 +16237,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A554" s="40">
         <f>EDATE(A552,1)</f>
         <v>44470</v>
@@ -16268,7 +16258,7 @@
       <c r="J554" s="11"/>
       <c r="K554" s="20"/>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A555" s="40">
         <f t="shared" si="27"/>
         <v>44501</v>
@@ -16289,7 +16279,7 @@
       <c r="J555" s="11"/>
       <c r="K555" s="20"/>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A556" s="40">
         <f t="shared" si="27"/>
         <v>44531</v>
@@ -16316,7 +16306,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A557" s="40"/>
       <c r="B557" s="20" t="s">
         <v>188</v>
@@ -16336,25 +16326,25 @@
       <c r="J557" s="11"/>
       <c r="K557" s="20"/>
     </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A558" s="48" t="s">
         <v>387</v>
       </c>
       <c r="B558" s="15"/>
       <c r="C558" s="42"/>
       <c r="D558" s="43"/>
-      <c r="E558" s="51"/>
+      <c r="E558" s="50"/>
       <c r="F558" s="15"/>
       <c r="G558" s="42" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H558" s="43"/>
-      <c r="I558" s="51"/>
+      <c r="I558" s="50"/>
       <c r="J558" s="12"/>
       <c r="K558" s="15"/>
     </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A559" s="40">
         <f>EDATE(A556,1)</f>
         <v>44562</v>
@@ -16375,7 +16365,7 @@
       <c r="J559" s="11"/>
       <c r="K559" s="20"/>
     </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A560" s="40">
         <f>EDATE(A559,1)</f>
         <v>44593</v>
@@ -16402,7 +16392,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A561" s="40">
         <f t="shared" ref="A561:A562" si="28">EDATE(A560,1)</f>
         <v>44621</v>
@@ -16427,7 +16417,7 @@
       <c r="J561" s="11"/>
       <c r="K561" s="20"/>
     </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A562" s="40">
         <f t="shared" si="28"/>
         <v>44652</v>
@@ -16450,11 +16440,11 @@
       <c r="H562" s="39"/>
       <c r="I562" s="9"/>
       <c r="J562" s="11"/>
-      <c r="K562" s="50">
+      <c r="K562" s="49">
         <v>45042</v>
       </c>
     </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A563" s="40"/>
       <c r="B563" s="20" t="s">
         <v>408</v>
@@ -16472,9 +16462,9 @@
       <c r="H563" s="39"/>
       <c r="I563" s="9"/>
       <c r="J563" s="11"/>
-      <c r="K563" s="50"/>
-    </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K563" s="49"/>
+    </row>
+    <row r="564" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A564" s="40">
         <f>EDATE(A562,1)</f>
         <v>44682</v>
@@ -16497,11 +16487,11 @@
       <c r="H564" s="39"/>
       <c r="I564" s="9"/>
       <c r="J564" s="11"/>
-      <c r="K564" s="56">
+      <c r="K564" s="55">
         <v>44704</v>
       </c>
     </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A565" s="40"/>
       <c r="B565" s="20" t="s">
         <v>105</v>
@@ -16519,9 +16509,9 @@
       <c r="H565" s="39"/>
       <c r="I565" s="9"/>
       <c r="J565" s="11"/>
-      <c r="K565" s="56"/>
-    </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K565" s="55"/>
+    </row>
+    <row r="566" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A566" s="40">
         <f>EDATE(A564,1)</f>
         <v>44713</v>
@@ -16546,7 +16536,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A567" s="40"/>
       <c r="B567" s="20" t="s">
         <v>395</v>
@@ -16564,11 +16554,11 @@
       <c r="H567" s="39"/>
       <c r="I567" s="9"/>
       <c r="J567" s="11"/>
-      <c r="K567" s="56">
+      <c r="K567" s="55">
         <v>44718</v>
       </c>
     </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A568" s="40"/>
       <c r="B568" s="20" t="s">
         <v>407</v>
@@ -16586,9 +16576,9 @@
       <c r="H568" s="39"/>
       <c r="I568" s="9"/>
       <c r="J568" s="11"/>
-      <c r="K568" s="56"/>
-    </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K568" s="55"/>
+    </row>
+    <row r="569" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A569" s="40">
         <f>EDATE(A566,1)</f>
         <v>44743</v>
@@ -16615,7 +16605,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A570" s="40"/>
       <c r="B570" s="20" t="s">
         <v>404</v>
@@ -16637,7 +16627,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A571" s="40"/>
       <c r="B571" s="20" t="s">
         <v>406</v>
@@ -16657,7 +16647,7 @@
       <c r="J571" s="11"/>
       <c r="K571" s="20"/>
     </row>
-    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A572" s="40">
         <f>EDATE(A569,1)</f>
         <v>44774</v>
@@ -16680,11 +16670,11 @@
       </c>
       <c r="I572" s="9"/>
       <c r="J572" s="11"/>
-      <c r="K572" s="56">
+      <c r="K572" s="55">
         <v>44789</v>
       </c>
     </row>
-    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A573" s="40"/>
       <c r="B573" s="20" t="s">
         <v>403</v>
@@ -16702,9 +16692,9 @@
       <c r="H573" s="39"/>
       <c r="I573" s="9"/>
       <c r="J573" s="11"/>
-      <c r="K573" s="56"/>
-    </row>
-    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K573" s="55"/>
+    </row>
+    <row r="574" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A574" s="40">
         <f>EDATE(A572,1)</f>
         <v>44805</v>
@@ -16718,20 +16708,20 @@
       <c r="D574" s="43">
         <v>2</v>
       </c>
-      <c r="E574" s="51"/>
+      <c r="E574" s="50"/>
       <c r="F574" s="15"/>
       <c r="G574" s="42">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H574" s="43"/>
-      <c r="I574" s="51"/>
+      <c r="I574" s="50"/>
       <c r="J574" s="12"/>
       <c r="K574" s="15" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A575" s="40"/>
       <c r="B575" s="20" t="s">
         <v>400</v>
@@ -16753,7 +16743,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="576" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A576" s="40"/>
       <c r="B576" s="20" t="s">
         <v>402</v>
@@ -16773,7 +16763,7 @@
       <c r="J576" s="11"/>
       <c r="K576" s="20"/>
     </row>
-    <row r="577" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A577" s="40">
         <f>EDATE(A574,1)</f>
         <v>44835</v>
@@ -16796,11 +16786,11 @@
       <c r="H577" s="39"/>
       <c r="I577" s="9"/>
       <c r="J577" s="11"/>
-      <c r="K577" s="56">
+      <c r="K577" s="55">
         <v>44841</v>
       </c>
     </row>
-    <row r="578" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A578" s="40"/>
       <c r="B578" s="20" t="s">
         <v>399</v>
@@ -16818,9 +16808,9 @@
       <c r="H578" s="39"/>
       <c r="I578" s="9"/>
       <c r="J578" s="11"/>
-      <c r="K578" s="56"/>
-    </row>
-    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K578" s="55"/>
+    </row>
+    <row r="579" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A579" s="40">
         <f>EDATE(A577,1)</f>
         <v>44866</v>
@@ -16843,11 +16833,11 @@
       <c r="H579" s="39"/>
       <c r="I579" s="9"/>
       <c r="J579" s="11"/>
-      <c r="K579" s="56">
+      <c r="K579" s="55">
         <v>44886</v>
       </c>
     </row>
-    <row r="580" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A580" s="40"/>
       <c r="B580" s="20" t="s">
         <v>398</v>
@@ -16865,9 +16855,9 @@
       <c r="H580" s="39"/>
       <c r="I580" s="9"/>
       <c r="J580" s="11"/>
-      <c r="K580" s="56"/>
-    </row>
-    <row r="581" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K580" s="55"/>
+    </row>
+    <row r="581" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A581" s="40">
         <f>EDATE(A579,1)</f>
         <v>44896</v>
@@ -16890,11 +16880,11 @@
       <c r="H581" s="39"/>
       <c r="I581" s="9"/>
       <c r="J581" s="11"/>
-      <c r="K581" s="56">
+      <c r="K581" s="55">
         <v>44916</v>
       </c>
     </row>
-    <row r="582" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A582" s="40"/>
       <c r="B582" s="20" t="s">
         <v>396</v>
@@ -16914,7 +16904,7 @@
       <c r="J582" s="11"/>
       <c r="K582" s="20"/>
     </row>
-    <row r="583" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A583" s="48" t="s">
         <v>391</v>
       </c>
@@ -16932,7 +16922,7 @@
       <c r="J583" s="11"/>
       <c r="K583" s="20"/>
     </row>
-    <row r="584" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A584" s="40">
         <f>EDATE(A581,1)</f>
         <v>44927</v>
@@ -16957,7 +16947,7 @@
       <c r="J584" s="11"/>
       <c r="K584" s="20"/>
     </row>
-    <row r="585" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A585" s="40">
         <f t="shared" ref="A585:A588" si="29">EDATE(A584,1)</f>
         <v>44958</v>
@@ -16984,7 +16974,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="586" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A586" s="40"/>
       <c r="B586" s="20" t="s">
         <v>423</v>
@@ -17004,7 +16994,7 @@
       <c r="J586" s="11"/>
       <c r="K586" s="20"/>
     </row>
-    <row r="587" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A587" s="40">
         <f>EDATE(A585,1)</f>
         <v>44986</v>
@@ -17029,7 +17019,7 @@
       <c r="J587" s="11"/>
       <c r="K587" s="20"/>
     </row>
-    <row r="588" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A588" s="40">
         <f t="shared" si="29"/>
         <v>45017</v>
@@ -17052,11 +17042,11 @@
       <c r="H588" s="39"/>
       <c r="I588" s="9"/>
       <c r="J588" s="11"/>
-      <c r="K588" s="56">
+      <c r="K588" s="55">
         <v>45044</v>
       </c>
     </row>
-    <row r="589" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A589" s="40"/>
       <c r="B589" s="20" t="s">
         <v>421</v>
@@ -17074,9 +17064,9 @@
       <c r="H589" s="39"/>
       <c r="I589" s="9"/>
       <c r="J589" s="11"/>
-      <c r="K589" s="56"/>
-    </row>
-    <row r="590" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K589" s="55"/>
+    </row>
+    <row r="590" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A590" s="40">
         <f>EDATE(A588,1)</f>
         <v>45047</v>
@@ -17099,11 +17089,11 @@
       <c r="H590" s="39"/>
       <c r="I590" s="9"/>
       <c r="J590" s="11"/>
-      <c r="K590" s="56">
+      <c r="K590" s="55">
         <v>45055</v>
       </c>
     </row>
-    <row r="591" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A591" s="40"/>
       <c r="B591" s="20" t="s">
         <v>55</v>
@@ -17121,11 +17111,11 @@
       </c>
       <c r="I591" s="9"/>
       <c r="J591" s="11"/>
-      <c r="K591" s="56" t="s">
+      <c r="K591" s="55" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="592" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A592" s="40"/>
       <c r="B592" s="20" t="s">
         <v>420</v>
@@ -17143,9 +17133,9 @@
       <c r="H592" s="39"/>
       <c r="I592" s="9"/>
       <c r="J592" s="11"/>
-      <c r="K592" s="56"/>
-    </row>
-    <row r="593" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K592" s="55"/>
+    </row>
+    <row r="593" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A593" s="40">
         <f>EDATE(A590,1)</f>
         <v>45078</v>
@@ -17166,7 +17156,7 @@
       <c r="J593" s="11"/>
       <c r="K593" s="20"/>
     </row>
-    <row r="594" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A594" s="40">
         <v>45108</v>
       </c>
@@ -17192,7 +17182,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="595" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A595" s="40"/>
       <c r="B595" s="20" t="s">
         <v>419</v>
@@ -17212,7 +17202,7 @@
       <c r="J595" s="11"/>
       <c r="K595" s="20"/>
     </row>
-    <row r="596" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A596" s="40">
         <v>45139</v>
       </c>
@@ -17238,7 +17228,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="597" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A597" s="40"/>
       <c r="B597" s="20" t="s">
         <v>418</v>
@@ -17258,7 +17248,7 @@
       <c r="J597" s="11"/>
       <c r="K597" s="20"/>
     </row>
-    <row r="598" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A598" s="40">
         <v>45170</v>
       </c>
@@ -17280,11 +17270,11 @@
       </c>
       <c r="I598" s="9"/>
       <c r="J598" s="11"/>
-      <c r="K598" s="56">
+      <c r="K598" s="55">
         <v>45177</v>
       </c>
     </row>
-    <row r="599" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A599" s="40"/>
       <c r="B599" s="20" t="s">
         <v>53</v>
@@ -17302,11 +17292,11 @@
       <c r="H599" s="39"/>
       <c r="I599" s="9"/>
       <c r="J599" s="11"/>
-      <c r="K599" s="56">
+      <c r="K599" s="55">
         <v>45195</v>
       </c>
     </row>
-    <row r="600" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A600" s="40"/>
       <c r="B600" s="20" t="s">
         <v>417</v>
@@ -17324,9 +17314,9 @@
       <c r="H600" s="39"/>
       <c r="I600" s="9"/>
       <c r="J600" s="11"/>
-      <c r="K600" s="56"/>
-    </row>
-    <row r="601" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K600" s="55"/>
+    </row>
+    <row r="601" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A601" s="41">
         <v>45200</v>
       </c>
@@ -17337,7 +17327,7 @@
         <v>1.25</v>
       </c>
       <c r="D601" s="43"/>
-      <c r="E601" s="51"/>
+      <c r="E601" s="50"/>
       <c r="F601" s="15"/>
       <c r="G601" s="42">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
@@ -17346,13 +17336,13 @@
       <c r="H601" s="43">
         <v>2</v>
       </c>
-      <c r="I601" s="51"/>
+      <c r="I601" s="50"/>
       <c r="J601" s="12"/>
       <c r="K601" s="15" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="602" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A602" s="40"/>
       <c r="B602" s="20" t="s">
         <v>52</v>
@@ -17370,11 +17360,11 @@
       </c>
       <c r="I602" s="9"/>
       <c r="J602" s="11"/>
-      <c r="K602" s="56" t="s">
+      <c r="K602" s="55" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="603" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A603" s="40"/>
       <c r="B603" s="20" t="s">
         <v>416</v>
@@ -17392,9 +17382,9 @@
       <c r="H603" s="39"/>
       <c r="I603" s="9"/>
       <c r="J603" s="11"/>
-      <c r="K603" s="56"/>
-    </row>
-    <row r="604" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K603" s="55"/>
+    </row>
+    <row r="604" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A604" s="41">
         <v>45231</v>
       </c>
@@ -17418,7 +17408,7 @@
       <c r="J604" s="11"/>
       <c r="K604" s="20"/>
     </row>
-    <row r="605" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A605" s="41">
         <v>45261</v>
       </c>
@@ -17444,7 +17434,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="606" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A606" s="40"/>
       <c r="B606" s="20" t="s">
         <v>188</v>
@@ -17459,11 +17449,11 @@
       <c r="H606" s="39"/>
       <c r="I606" s="9"/>
       <c r="J606" s="11"/>
-      <c r="K606" s="56">
+      <c r="K606" s="55">
         <v>45289</v>
       </c>
     </row>
-    <row r="607" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A607" s="40"/>
       <c r="B607" s="20" t="s">
         <v>413</v>
@@ -17481,45 +17471,51 @@
       <c r="H607" s="39"/>
       <c r="I607" s="9"/>
       <c r="J607" s="11"/>
-      <c r="K607" s="56"/>
-    </row>
-    <row r="608" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A608" s="57" t="s">
+      <c r="K607" s="55"/>
+    </row>
+    <row r="608" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A608" s="56" t="s">
         <v>412</v>
       </c>
       <c r="B608" s="15"/>
       <c r="C608" s="42"/>
       <c r="D608" s="43"/>
-      <c r="E608" s="51"/>
+      <c r="E608" s="50"/>
       <c r="F608" s="15"/>
       <c r="G608" s="42" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H608" s="43"/>
-      <c r="I608" s="51"/>
+      <c r="I608" s="50"/>
       <c r="J608" s="12"/>
       <c r="K608" s="15"/>
     </row>
-    <row r="609" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A609" s="40">
         <v>45292</v>
       </c>
-      <c r="B609" s="20"/>
-      <c r="C609" s="13"/>
+      <c r="B609" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="C609" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D609" s="39"/>
       <c r="E609" s="9"/>
       <c r="F609" s="20"/>
-      <c r="G609" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G609" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H609" s="39"/>
       <c r="I609" s="9"/>
       <c r="J609" s="11"/>
-      <c r="K609" s="20"/>
-    </row>
-    <row r="610" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K609" s="55">
+        <v>45320</v>
+      </c>
+    </row>
+    <row r="610" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A610" s="40">
         <v>45323</v>
       </c>
@@ -17537,7 +17533,7 @@
       <c r="J610" s="11"/>
       <c r="K610" s="20"/>
     </row>
-    <row r="611" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A611" s="40">
         <v>45352</v>
       </c>
@@ -17555,7 +17551,7 @@
       <c r="J611" s="11"/>
       <c r="K611" s="20"/>
     </row>
-    <row r="612" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A612" s="40">
         <v>45383</v>
       </c>
@@ -17573,7 +17569,7 @@
       <c r="J612" s="11"/>
       <c r="K612" s="20"/>
     </row>
-    <row r="613" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A613" s="40">
         <v>45413</v>
       </c>
@@ -17591,7 +17587,7 @@
       <c r="J613" s="11"/>
       <c r="K613" s="20"/>
     </row>
-    <row r="614" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A614" s="40">
         <v>45444</v>
       </c>
@@ -17609,7 +17605,7 @@
       <c r="J614" s="11"/>
       <c r="K614" s="20"/>
     </row>
-    <row r="615" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A615" s="40">
         <v>45474</v>
       </c>
@@ -17627,7 +17623,7 @@
       <c r="J615" s="11"/>
       <c r="K615" s="20"/>
     </row>
-    <row r="616" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A616" s="40">
         <v>45505</v>
       </c>
@@ -17645,7 +17641,7 @@
       <c r="J616" s="11"/>
       <c r="K616" s="20"/>
     </row>
-    <row r="617" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A617" s="40">
         <v>45536</v>
       </c>
@@ -17663,7 +17659,7 @@
       <c r="J617" s="11"/>
       <c r="K617" s="20"/>
     </row>
-    <row r="618" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A618" s="40">
         <v>45566</v>
       </c>
@@ -17681,7 +17677,7 @@
       <c r="J618" s="11"/>
       <c r="K618" s="20"/>
     </row>
-    <row r="619" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A619" s="40">
         <v>45597</v>
       </c>
@@ -17699,7 +17695,7 @@
       <c r="J619" s="11"/>
       <c r="K619" s="20"/>
     </row>
-    <row r="620" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A620" s="40">
         <v>45627</v>
       </c>
@@ -17717,7 +17713,7 @@
       <c r="J620" s="11"/>
       <c r="K620" s="20"/>
     </row>
-    <row r="621" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A621" s="40">
         <v>45658</v>
       </c>
@@ -17735,7 +17731,7 @@
       <c r="J621" s="11"/>
       <c r="K621" s="20"/>
     </row>
-    <row r="622" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A622" s="40">
         <v>45689</v>
       </c>
@@ -17753,21 +17749,21 @@
       <c r="J622" s="11"/>
       <c r="K622" s="20"/>
     </row>
-    <row r="623" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A623" s="40">
         <v>45717</v>
       </c>
       <c r="B623" s="15"/>
       <c r="C623" s="42"/>
       <c r="D623" s="43"/>
-      <c r="E623" s="51"/>
+      <c r="E623" s="50"/>
       <c r="F623" s="15"/>
       <c r="G623" s="42" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H623" s="43"/>
-      <c r="I623" s="51"/>
+      <c r="I623" s="50"/>
       <c r="J623" s="12"/>
       <c r="K623" s="15"/>
     </row>
@@ -17786,10 +17782,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -17812,7 +17808,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -17820,34 +17816,34 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D1" s="68" t="s">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D1" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="J1" s="69" t="s">
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="J1" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -17876,7 +17872,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>8.3000000000000004E-2</v>
       </c>
@@ -17904,17 +17900,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -17928,14 +17924,14 @@
         <v>30</v>
       </c>
       <c r="G6" s="44"/>
-      <c r="I6" s="69" t="s">
+      <c r="I6" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="69"/>
-      <c r="K6" s="69"/>
-      <c r="L6" s="69"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J6" s="68"/>
+      <c r="K6" s="68"/>
+      <c r="L6" s="68"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -17962,7 +17958,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -17988,7 +17984,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -18014,7 +18010,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -18040,7 +18036,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -18066,7 +18062,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -18092,7 +18088,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -18118,7 +18114,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -18144,7 +18140,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -18164,7 +18160,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -18184,7 +18180,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -18204,7 +18200,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -18225,7 +18221,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -18246,7 +18242,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -18267,7 +18263,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -18288,7 +18284,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -18309,7 +18305,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -18330,7 +18326,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -18351,7 +18347,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -18372,7 +18368,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -18393,7 +18389,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -18414,7 +18410,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -18435,7 +18431,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -18456,7 +18452,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -18477,7 +18473,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -18498,7 +18494,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -18519,7 +18515,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -18540,7 +18536,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -18561,7 +18557,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -18582,7 +18578,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -18603,7 +18599,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -18624,7 +18620,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -18633,7 +18629,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -18642,7 +18638,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -18651,7 +18647,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -18660,7 +18656,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -18669,7 +18665,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -18678,7 +18674,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -18687,7 +18683,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -18696,7 +18692,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -18705,7 +18701,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -18714,7 +18710,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -18723,7 +18719,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -18732,7 +18728,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -18741,7 +18737,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -18750,7 +18746,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -18759,7 +18755,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -18768,7 +18764,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -18777,7 +18773,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -18786,7 +18782,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -18795,7 +18791,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -18804,7 +18800,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -18813,7 +18809,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -18822,7 +18818,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -18831,7 +18827,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -18840,7 +18836,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -18849,7 +18845,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -18858,7 +18854,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -18867,7 +18863,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -18876,7 +18872,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -18885,7 +18881,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
